--- a/Codigo/Bases/datos_administrativos/Indicadores_de_Género/SALUD/Vitales y Hospitalarias sector privado.xlsx
+++ b/Codigo/Bases/datos_administrativos/Indicadores_de_Género/SALUD/Vitales y Hospitalarias sector privado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ineedso\Desktop\DESA 2023\SOLICITUDES DE INFORMACION 2023\Indicadores de Género\SALUD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inegobgt-my.sharepoint.com/personal/unidadgenero_ine_gob_gt/Documents/Documentos/Github/CompendioGenero2023/Codigo/Bases/datos_administrativos/Indicadores_de_Género/SALUD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EB1F38-5D05-441E-AE81-FCDA0826C611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="13_ncr:1_{F8EB1F38-5D05-441E-AE81-FCDA0826C611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DE9EB0E-B500-446C-BCF1-84220C249BC5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="172">
   <si>
     <t>Total</t>
   </si>
@@ -776,7 +776,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -848,8 +848,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -859,8 +872,9 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1019,25 +1033,10 @@
     <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="167" fontId="11" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1094,6 +1093,34 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1118,14 +1145,14 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1149,7 +1176,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
     <cellStyle name="Millares" xfId="6" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -1159,6 +1186,7 @@
     <cellStyle name="Normal_Hoja2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Normal_Hoja3" xfId="8" xr:uid="{82C77C03-DDF4-4FF2-909D-CA17B75EF554}"/>
     <cellStyle name="Normal_Hoja5" xfId="5" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Porcentaje" xfId="9" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1222,6 +1250,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1547,8 +1579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1559,26 +1591,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="88" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -1771,28 +1803,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" style="20" customWidth="1"/>
-    <col min="2" max="11" width="11.7109375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="20" customWidth="1"/>
+    <col min="4" max="11" width="11.7109375" style="20" customWidth="1"/>
     <col min="12" max="16384" width="11.42578125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="90" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -2042,6 +2076,387 @@
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="85" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="86">
+        <v>383263</v>
+      </c>
+      <c r="C18" s="84"/>
+      <c r="D18" s="86">
+        <v>366855</v>
+      </c>
+      <c r="F18" s="86">
+        <v>341212</v>
+      </c>
+      <c r="H18" s="86">
+        <v>345149</v>
+      </c>
+      <c r="J18" s="86">
+        <v>78718</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="24">
+        <v>2004</v>
+      </c>
+      <c r="C19" s="87">
+        <f>(B19/B$18)*100</f>
+        <v>0.52287854554183411</v>
+      </c>
+      <c r="D19" s="24">
+        <v>1914</v>
+      </c>
+      <c r="E19" s="87">
+        <f>(D19/D$18)*100</f>
+        <v>0.52173201946273051</v>
+      </c>
+      <c r="F19" s="24">
+        <v>1578</v>
+      </c>
+      <c r="G19" s="87">
+        <f>(F19/F$18)*100</f>
+        <v>0.4624690808060678</v>
+      </c>
+      <c r="H19" s="24">
+        <v>1805</v>
+      </c>
+      <c r="I19" s="87">
+        <f>(H19/H$18)*100</f>
+        <v>0.5229625466103045</v>
+      </c>
+      <c r="J19" s="24">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="24">
+        <v>72615</v>
+      </c>
+      <c r="C20" s="87">
+        <f t="shared" ref="C20:C28" si="0">(B20/B$18)*100</f>
+        <v>18.946519752754636</v>
+      </c>
+      <c r="D20" s="24">
+        <v>67984</v>
+      </c>
+      <c r="E20" s="87">
+        <f t="shared" ref="E20:E28" si="1">(D20/D$18)*100</f>
+        <v>18.531572419620833</v>
+      </c>
+      <c r="F20" s="24">
+        <v>60410</v>
+      </c>
+      <c r="G20" s="87">
+        <f t="shared" ref="G20:G28" si="2">(F20/F$18)*100</f>
+        <v>17.704535596637868</v>
+      </c>
+      <c r="H20" s="24">
+        <v>60731</v>
+      </c>
+      <c r="I20" s="87">
+        <f t="shared" ref="I20:I28" si="3">(H20/H$18)*100</f>
+        <v>17.595589151352026</v>
+      </c>
+      <c r="J20" s="24">
+        <v>13252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="24">
+        <v>117125</v>
+      </c>
+      <c r="C21" s="87">
+        <f t="shared" si="0"/>
+        <v>30.559954913466729</v>
+      </c>
+      <c r="D21" s="24">
+        <v>112059</v>
+      </c>
+      <c r="E21" s="87">
+        <f t="shared" si="1"/>
+        <v>30.545855992149484</v>
+      </c>
+      <c r="F21" s="24">
+        <v>105610</v>
+      </c>
+      <c r="G21" s="87">
+        <f t="shared" si="2"/>
+        <v>30.951431954327514</v>
+      </c>
+      <c r="H21" s="24">
+        <v>105003</v>
+      </c>
+      <c r="I21" s="87">
+        <f t="shared" si="3"/>
+        <v>30.422513175469145</v>
+      </c>
+      <c r="J21" s="24">
+        <v>23924</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="24">
+        <v>89425</v>
+      </c>
+      <c r="C22" s="87">
+        <f t="shared" si="0"/>
+        <v>23.332541883771718</v>
+      </c>
+      <c r="D22" s="24">
+        <v>87019</v>
+      </c>
+      <c r="E22" s="87">
+        <f t="shared" si="1"/>
+        <v>23.720270951738424</v>
+      </c>
+      <c r="F22" s="24">
+        <v>82401</v>
+      </c>
+      <c r="G22" s="87">
+        <f t="shared" si="2"/>
+        <v>24.149502362167802</v>
+      </c>
+      <c r="H22" s="24">
+        <v>83683</v>
+      </c>
+      <c r="I22" s="87">
+        <f t="shared" si="3"/>
+        <v>24.245470796670425</v>
+      </c>
+      <c r="J22" s="24">
+        <v>19498</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="24">
+        <v>59125</v>
+      </c>
+      <c r="C23" s="87">
+        <f t="shared" si="0"/>
+        <v>15.426743515549374</v>
+      </c>
+      <c r="D23" s="24">
+        <v>57213</v>
+      </c>
+      <c r="E23" s="87">
+        <f t="shared" si="1"/>
+        <v>15.595535020648486</v>
+      </c>
+      <c r="F23" s="24">
+        <v>53221</v>
+      </c>
+      <c r="G23" s="87">
+        <f t="shared" si="2"/>
+        <v>15.597634315323026</v>
+      </c>
+      <c r="H23" s="24">
+        <v>54809</v>
+      </c>
+      <c r="I23" s="87">
+        <f t="shared" si="3"/>
+        <v>15.879808430561873</v>
+      </c>
+      <c r="J23" s="24">
+        <v>12816</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="24">
+        <v>32409</v>
+      </c>
+      <c r="C24" s="87">
+        <f t="shared" si="0"/>
+        <v>8.4560732447431661</v>
+      </c>
+      <c r="D24" s="24">
+        <v>30783</v>
+      </c>
+      <c r="E24" s="87">
+        <f t="shared" si="1"/>
+        <v>8.3910536860612499</v>
+      </c>
+      <c r="F24" s="24">
+        <v>28846</v>
+      </c>
+      <c r="G24" s="87">
+        <f t="shared" si="2"/>
+        <v>8.4539816888034416</v>
+      </c>
+      <c r="H24" s="24">
+        <v>29583</v>
+      </c>
+      <c r="I24" s="87">
+        <f t="shared" si="3"/>
+        <v>8.5710808954973068</v>
+      </c>
+      <c r="J24" s="24">
+        <v>6653</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="24">
+        <v>9744</v>
+      </c>
+      <c r="C25" s="87">
+        <f t="shared" si="0"/>
+        <v>2.5423795148501158</v>
+      </c>
+      <c r="D25" s="24">
+        <v>9161</v>
+      </c>
+      <c r="E25" s="87">
+        <f t="shared" si="1"/>
+        <v>2.4971719071567788</v>
+      </c>
+      <c r="F25" s="24">
+        <v>8513</v>
+      </c>
+      <c r="G25" s="87">
+        <f t="shared" si="2"/>
+        <v>2.494929838340973</v>
+      </c>
+      <c r="H25" s="24">
+        <v>8840</v>
+      </c>
+      <c r="I25" s="87">
+        <f t="shared" si="3"/>
+        <v>2.5612126936482507</v>
+      </c>
+      <c r="J25" s="24">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="24">
+        <v>633</v>
+      </c>
+      <c r="C26" s="87">
+        <f t="shared" si="0"/>
+        <v>0.16516073818761529</v>
+      </c>
+      <c r="D26" s="24">
+        <v>594</v>
+      </c>
+      <c r="E26" s="87">
+        <f t="shared" si="1"/>
+        <v>0.16191683362636464</v>
+      </c>
+      <c r="F26" s="24">
+        <v>521</v>
+      </c>
+      <c r="G26" s="87">
+        <f t="shared" si="2"/>
+        <v>0.15269099562735192</v>
+      </c>
+      <c r="H26" s="24">
+        <v>577</v>
+      </c>
+      <c r="I26" s="87">
+        <f t="shared" si="3"/>
+        <v>0.16717417694966522</v>
+      </c>
+      <c r="J26" s="24">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="24">
+        <v>44</v>
+      </c>
+      <c r="C27" s="87">
+        <f t="shared" si="0"/>
+        <v>1.1480367267385582E-2</v>
+      </c>
+      <c r="D27" s="24">
+        <v>36</v>
+      </c>
+      <c r="E27" s="87">
+        <f t="shared" si="1"/>
+        <v>9.8131414319008875E-3</v>
+      </c>
+      <c r="F27" s="24">
+        <v>31</v>
+      </c>
+      <c r="G27" s="87">
+        <f t="shared" si="2"/>
+        <v>9.0852607762915722E-3</v>
+      </c>
+      <c r="H27" s="24">
+        <v>36</v>
+      </c>
+      <c r="I27" s="87">
+        <f t="shared" si="3"/>
+        <v>1.0430277937934052E-2</v>
+      </c>
+      <c r="J27" s="24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="24">
+        <v>139</v>
+      </c>
+      <c r="C28" s="87">
+        <f t="shared" si="0"/>
+        <v>3.626752386742263E-2</v>
+      </c>
+      <c r="D28" s="24">
+        <v>92</v>
+      </c>
+      <c r="E28" s="87">
+        <f t="shared" si="1"/>
+        <v>2.5078028103746708E-2</v>
+      </c>
+      <c r="F28" s="24">
+        <v>81</v>
+      </c>
+      <c r="G28" s="87">
+        <f t="shared" si="2"/>
+        <v>2.3738907189665075E-2</v>
+      </c>
+      <c r="H28" s="24">
+        <v>82</v>
+      </c>
+      <c r="I28" s="87">
+        <f t="shared" si="3"/>
+        <v>2.3757855303072006E-2</v>
+      </c>
+      <c r="J28" s="24">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2057,7 +2472,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="A2" sqref="A2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2068,31 +2483,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="88" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="93" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="87"/>
+      <c r="A3" s="92"/>
       <c r="B3" s="10" t="s">
         <v>158</v>
       </c>
@@ -2277,52 +2692,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="97" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="92"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
@@ -2390,7 +2805,7 @@
       </c>
     </row>
     <row r="4" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="96" t="s">
         <v>156</v>
       </c>
       <c r="B4" s="44" t="s">
@@ -2455,7 +2870,7 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="33" t="s">
         <v>8</v>
       </c>
@@ -2518,7 +2933,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="90"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="34" t="s">
         <v>9</v>
       </c>
@@ -2581,7 +2996,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="93">
+      <c r="A7" s="96">
         <v>2021</v>
       </c>
       <c r="B7" s="44" t="s">
@@ -2646,7 +3061,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="89"/>
+      <c r="A8" s="94"/>
       <c r="B8" s="33" t="s">
         <v>8</v>
       </c>
@@ -2709,7 +3124,7 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="90"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="34" t="s">
         <v>9</v>
       </c>
@@ -2772,7 +3187,7 @@
       </c>
     </row>
     <row r="10" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="93">
+      <c r="A10" s="96">
         <v>2020</v>
       </c>
       <c r="B10" s="44" t="s">
@@ -2837,7 +3252,7 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="89"/>
+      <c r="A11" s="94"/>
       <c r="B11" s="33" t="s">
         <v>8</v>
       </c>
@@ -2900,7 +3315,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="90"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="34" t="s">
         <v>9</v>
       </c>
@@ -2963,7 +3378,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="93">
+      <c r="A13" s="96">
         <v>2019</v>
       </c>
       <c r="B13" s="44" t="s">
@@ -3028,7 +3443,7 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="89"/>
+      <c r="A14" s="94"/>
       <c r="B14" s="33" t="s">
         <v>8</v>
       </c>
@@ -3091,7 +3506,7 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="90"/>
+      <c r="A15" s="95"/>
       <c r="B15" s="34" t="s">
         <v>9</v>
       </c>
@@ -3154,7 +3569,7 @@
       </c>
     </row>
     <row r="16" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="89">
+      <c r="A16" s="94">
         <v>2018</v>
       </c>
       <c r="B16" s="32" t="s">
@@ -3219,7 +3634,7 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="89"/>
+      <c r="A17" s="94"/>
       <c r="B17" s="33" t="s">
         <v>8</v>
       </c>
@@ -3282,7 +3697,7 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="90"/>
+      <c r="A18" s="95"/>
       <c r="B18" s="34" t="s">
         <v>9</v>
       </c>
@@ -3395,52 +3810,52 @@
       <c r="U20" s="28"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="97" t="s">
         <v>163</v>
       </c>
-      <c r="B21" s="83"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="83"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="83"/>
-      <c r="O21" s="83"/>
-      <c r="P21" s="83"/>
-      <c r="Q21" s="83"/>
-      <c r="R21" s="83"/>
-      <c r="S21" s="83"/>
-      <c r="T21" s="83"/>
-      <c r="U21" s="83"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="88"/>
+      <c r="M21" s="88"/>
+      <c r="N21" s="88"/>
+      <c r="O21" s="88"/>
+      <c r="P21" s="88"/>
+      <c r="Q21" s="88"/>
+      <c r="R21" s="88"/>
+      <c r="S21" s="88"/>
+      <c r="T21" s="88"/>
+      <c r="U21" s="88"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="92"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="84"/>
-      <c r="S22" s="84"/>
-      <c r="T22" s="84"/>
-      <c r="U22" s="84"/>
+      <c r="A22" s="98"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="89"/>
+      <c r="N22" s="89"/>
+      <c r="O22" s="89"/>
+      <c r="P22" s="89"/>
+      <c r="Q22" s="89"/>
+      <c r="R22" s="89"/>
+      <c r="S22" s="89"/>
+      <c r="T22" s="89"/>
+      <c r="U22" s="89"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
@@ -3508,7 +3923,7 @@
       </c>
     </row>
     <row r="24" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="93" t="s">
+      <c r="A24" s="96" t="s">
         <v>156</v>
       </c>
       <c r="B24" s="44" t="s">
@@ -3573,7 +3988,7 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="89"/>
+      <c r="A25" s="94"/>
       <c r="B25" s="33" t="s">
         <v>8</v>
       </c>
@@ -3636,7 +4051,7 @@
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="90"/>
+      <c r="A26" s="95"/>
       <c r="B26" s="34" t="s">
         <v>9</v>
       </c>
@@ -3699,7 +4114,7 @@
       </c>
     </row>
     <row r="27" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="93">
+      <c r="A27" s="96">
         <v>2021</v>
       </c>
       <c r="B27" s="44" t="s">
@@ -3764,7 +4179,7 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="89"/>
+      <c r="A28" s="94"/>
       <c r="B28" s="33" t="s">
         <v>8</v>
       </c>
@@ -3827,7 +4242,7 @@
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="90"/>
+      <c r="A29" s="95"/>
       <c r="B29" s="34" t="s">
         <v>9</v>
       </c>
@@ -3890,7 +4305,7 @@
       </c>
     </row>
     <row r="30" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="93">
+      <c r="A30" s="96">
         <v>2020</v>
       </c>
       <c r="B30" s="44" t="s">
@@ -3955,7 +4370,7 @@
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="89"/>
+      <c r="A31" s="94"/>
       <c r="B31" s="33" t="s">
         <v>8</v>
       </c>
@@ -4018,7 +4433,7 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="90"/>
+      <c r="A32" s="95"/>
       <c r="B32" s="34" t="s">
         <v>9</v>
       </c>
@@ -4081,7 +4496,7 @@
       </c>
     </row>
     <row r="33" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="93">
+      <c r="A33" s="96">
         <v>2019</v>
       </c>
       <c r="B33" s="44" t="s">
@@ -4146,7 +4561,7 @@
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="89"/>
+      <c r="A34" s="94"/>
       <c r="B34" s="33" t="s">
         <v>8</v>
       </c>
@@ -4209,7 +4624,7 @@
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="90"/>
+      <c r="A35" s="95"/>
       <c r="B35" s="34" t="s">
         <v>9</v>
       </c>
@@ -4272,7 +4687,7 @@
       </c>
     </row>
     <row r="36" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="89">
+      <c r="A36" s="94">
         <v>2018</v>
       </c>
       <c r="B36" s="32" t="s">
@@ -4337,7 +4752,7 @@
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="89"/>
+      <c r="A37" s="94"/>
       <c r="B37" s="33" t="s">
         <v>8</v>
       </c>
@@ -4400,7 +4815,7 @@
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="90"/>
+      <c r="A38" s="95"/>
       <c r="B38" s="34" t="s">
         <v>9</v>
       </c>
@@ -4513,52 +4928,52 @@
       <c r="U40" s="28"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="91" t="s">
+      <c r="A41" s="97" t="s">
         <v>162</v>
       </c>
-      <c r="B41" s="83"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="83"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="83"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="83"/>
-      <c r="I41" s="83"/>
-      <c r="J41" s="83"/>
-      <c r="K41" s="83"/>
-      <c r="L41" s="83"/>
-      <c r="M41" s="83"/>
-      <c r="N41" s="83"/>
-      <c r="O41" s="83"/>
-      <c r="P41" s="83"/>
-      <c r="Q41" s="83"/>
-      <c r="R41" s="83"/>
-      <c r="S41" s="83"/>
-      <c r="T41" s="83"/>
-      <c r="U41" s="83"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="88"/>
+      <c r="H41" s="88"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="88"/>
+      <c r="K41" s="88"/>
+      <c r="L41" s="88"/>
+      <c r="M41" s="88"/>
+      <c r="N41" s="88"/>
+      <c r="O41" s="88"/>
+      <c r="P41" s="88"/>
+      <c r="Q41" s="88"/>
+      <c r="R41" s="88"/>
+      <c r="S41" s="88"/>
+      <c r="T41" s="88"/>
+      <c r="U41" s="88"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="92"/>
-      <c r="B42" s="84"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="84"/>
-      <c r="E42" s="84"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="84"/>
-      <c r="H42" s="84"/>
-      <c r="I42" s="84"/>
-      <c r="J42" s="84"/>
-      <c r="K42" s="84"/>
-      <c r="L42" s="84"/>
-      <c r="M42" s="84"/>
-      <c r="N42" s="84"/>
-      <c r="O42" s="84"/>
-      <c r="P42" s="84"/>
-      <c r="Q42" s="84"/>
-      <c r="R42" s="84"/>
-      <c r="S42" s="84"/>
-      <c r="T42" s="84"/>
-      <c r="U42" s="84"/>
+      <c r="A42" s="98"/>
+      <c r="B42" s="89"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="89"/>
+      <c r="G42" s="89"/>
+      <c r="H42" s="89"/>
+      <c r="I42" s="89"/>
+      <c r="J42" s="89"/>
+      <c r="K42" s="89"/>
+      <c r="L42" s="89"/>
+      <c r="M42" s="89"/>
+      <c r="N42" s="89"/>
+      <c r="O42" s="89"/>
+      <c r="P42" s="89"/>
+      <c r="Q42" s="89"/>
+      <c r="R42" s="89"/>
+      <c r="S42" s="89"/>
+      <c r="T42" s="89"/>
+      <c r="U42" s="89"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
@@ -4626,7 +5041,7 @@
       </c>
     </row>
     <row r="44" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="89" t="s">
+      <c r="A44" s="94" t="s">
         <v>156</v>
       </c>
       <c r="B44" s="32" t="s">
@@ -4691,7 +5106,7 @@
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A45" s="89"/>
+      <c r="A45" s="94"/>
       <c r="B45" s="33" t="s">
         <v>8</v>
       </c>
@@ -4754,7 +5169,7 @@
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" s="90"/>
+      <c r="A46" s="95"/>
       <c r="B46" s="34" t="s">
         <v>9</v>
       </c>
@@ -4817,7 +5232,7 @@
       </c>
     </row>
     <row r="47" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="93">
+      <c r="A47" s="96">
         <v>2021</v>
       </c>
       <c r="B47" s="44" t="s">
@@ -4882,7 +5297,7 @@
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A48" s="89"/>
+      <c r="A48" s="94"/>
       <c r="B48" s="33" t="s">
         <v>8</v>
       </c>
@@ -4945,7 +5360,7 @@
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A49" s="90"/>
+      <c r="A49" s="95"/>
       <c r="B49" s="34" t="s">
         <v>9</v>
       </c>
@@ -5008,7 +5423,7 @@
       </c>
     </row>
     <row r="50" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="93">
+      <c r="A50" s="96">
         <v>2020</v>
       </c>
       <c r="B50" s="44" t="s">
@@ -5073,7 +5488,7 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="89"/>
+      <c r="A51" s="94"/>
       <c r="B51" s="33" t="s">
         <v>8</v>
       </c>
@@ -5136,7 +5551,7 @@
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="90"/>
+      <c r="A52" s="95"/>
       <c r="B52" s="34" t="s">
         <v>9</v>
       </c>
@@ -5199,7 +5614,7 @@
       </c>
     </row>
     <row r="53" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="93">
+      <c r="A53" s="96">
         <v>2019</v>
       </c>
       <c r="B53" s="44" t="s">
@@ -5264,7 +5679,7 @@
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A54" s="89"/>
+      <c r="A54" s="94"/>
       <c r="B54" s="33" t="s">
         <v>8</v>
       </c>
@@ -5327,7 +5742,7 @@
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" s="90"/>
+      <c r="A55" s="95"/>
       <c r="B55" s="34" t="s">
         <v>9</v>
       </c>
@@ -5390,7 +5805,7 @@
       </c>
     </row>
     <row r="56" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="89">
+      <c r="A56" s="94">
         <v>2018</v>
       </c>
       <c r="B56" s="32" t="s">
@@ -5455,7 +5870,7 @@
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A57" s="89"/>
+      <c r="A57" s="94"/>
       <c r="B57" s="33" t="s">
         <v>8</v>
       </c>
@@ -5518,7 +5933,7 @@
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A58" s="90"/>
+      <c r="A58" s="95"/>
       <c r="B58" s="34" t="s">
         <v>9</v>
       </c>
@@ -5612,24 +6027,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A41:U42"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A21:U22"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A32"/>
     <mergeCell ref="A1:U2"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A21:U22"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A41:U42"/>
     <mergeCell ref="A44:A46"/>
     <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A56:A58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5641,7 +6056,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5651,10 +6066,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="89" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="84"/>
+      <c r="B1" s="89"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -5725,30 +6140,33 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5703125" style="56" customWidth="1"/>
-    <col min="2" max="2" width="92" style="61" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.5703125" style="58" customWidth="1"/>
     <col min="3" max="3" width="15.140625" style="56" customWidth="1"/>
     <col min="4" max="16384" width="11.42578125" style="56"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="99" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -5780,939 +6198,939 @@
       <c r="B3" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="62">
+      <c r="C3" s="59">
         <v>292</v>
       </c>
-      <c r="D3" s="62">
+      <c r="D3" s="59">
         <v>246</v>
       </c>
-      <c r="E3" s="62">
+      <c r="E3" s="59">
         <v>259</v>
       </c>
-      <c r="F3" s="62">
+      <c r="F3" s="59">
         <v>290</v>
       </c>
-      <c r="G3" s="62">
+      <c r="G3" s="59">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="58" t="s">
+    <row r="4" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="79" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="63">
+      <c r="C4" s="80">
         <v>4</v>
       </c>
-      <c r="D4" s="63">
+      <c r="D4" s="80">
         <v>5</v>
       </c>
-      <c r="E4" s="64">
-        <v>1</v>
-      </c>
-      <c r="F4" s="64">
-        <v>1</v>
-      </c>
-      <c r="G4" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="58" t="s">
+      <c r="E4" s="81">
+        <v>1</v>
+      </c>
+      <c r="F4" s="81">
+        <v>1</v>
+      </c>
+      <c r="G4" s="80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="63">
-        <v>2</v>
-      </c>
-      <c r="D5" s="63">
-        <v>0</v>
-      </c>
-      <c r="E5" s="64">
-        <v>2</v>
-      </c>
-      <c r="F5" s="63">
-        <v>0</v>
-      </c>
-      <c r="G5" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="58" t="s">
+      <c r="C5" s="80">
+        <v>2</v>
+      </c>
+      <c r="D5" s="80">
+        <v>0</v>
+      </c>
+      <c r="E5" s="81">
+        <v>2</v>
+      </c>
+      <c r="F5" s="80">
+        <v>0</v>
+      </c>
+      <c r="G5" s="80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="79" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="63">
-        <v>0</v>
-      </c>
-      <c r="D6" s="63">
-        <v>1</v>
-      </c>
-      <c r="E6" s="64">
-        <v>1</v>
-      </c>
-      <c r="F6" s="64">
-        <v>2</v>
-      </c>
-      <c r="G6" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="58" t="s">
+      <c r="C6" s="80">
+        <v>0</v>
+      </c>
+      <c r="D6" s="80">
+        <v>1</v>
+      </c>
+      <c r="E6" s="81">
+        <v>1</v>
+      </c>
+      <c r="F6" s="81">
+        <v>2</v>
+      </c>
+      <c r="G6" s="80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="79" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="63">
-        <v>0</v>
-      </c>
-      <c r="D7" s="63">
-        <v>1</v>
-      </c>
-      <c r="E7" s="63">
-        <v>0</v>
-      </c>
-      <c r="F7" s="63">
-        <v>0</v>
-      </c>
-      <c r="G7" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="58" t="s">
+      <c r="C7" s="80">
+        <v>0</v>
+      </c>
+      <c r="D7" s="80">
+        <v>1</v>
+      </c>
+      <c r="E7" s="80">
+        <v>0</v>
+      </c>
+      <c r="F7" s="80">
+        <v>0</v>
+      </c>
+      <c r="G7" s="80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="63">
+      <c r="C8" s="80">
         <v>13</v>
       </c>
-      <c r="D8" s="63">
+      <c r="D8" s="80">
         <v>15</v>
       </c>
-      <c r="E8" s="64">
+      <c r="E8" s="81">
         <v>6</v>
       </c>
-      <c r="F8" s="64">
+      <c r="F8" s="81">
         <v>11</v>
       </c>
-      <c r="G8" s="64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="58" t="s">
+      <c r="G8" s="81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="79" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="63">
-        <v>0</v>
-      </c>
-      <c r="D9" s="63">
-        <v>1</v>
-      </c>
-      <c r="E9" s="63">
-        <v>0</v>
-      </c>
-      <c r="F9" s="63">
-        <v>0</v>
-      </c>
-      <c r="G9" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="58" t="s">
+      <c r="C9" s="80">
+        <v>0</v>
+      </c>
+      <c r="D9" s="80">
+        <v>1</v>
+      </c>
+      <c r="E9" s="80">
+        <v>0</v>
+      </c>
+      <c r="F9" s="80">
+        <v>0</v>
+      </c>
+      <c r="G9" s="80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="63">
-        <v>1</v>
-      </c>
-      <c r="D10" s="63">
-        <v>0</v>
-      </c>
-      <c r="E10" s="63">
-        <v>0</v>
-      </c>
-      <c r="F10" s="63">
-        <v>0</v>
-      </c>
-      <c r="G10" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="58" t="s">
+      <c r="C10" s="80">
+        <v>1</v>
+      </c>
+      <c r="D10" s="80">
+        <v>0</v>
+      </c>
+      <c r="E10" s="80">
+        <v>0</v>
+      </c>
+      <c r="F10" s="80">
+        <v>0</v>
+      </c>
+      <c r="G10" s="80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="63">
+      <c r="C11" s="80">
         <v>38</v>
       </c>
-      <c r="D11" s="63">
+      <c r="D11" s="80">
         <v>21</v>
       </c>
-      <c r="E11" s="64">
+      <c r="E11" s="81">
         <v>31</v>
       </c>
-      <c r="F11" s="64">
+      <c r="F11" s="81">
         <v>25</v>
       </c>
-      <c r="G11" s="64">
+      <c r="G11" s="81">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="58" t="s">
+    <row r="12" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="63">
+      <c r="C12" s="80">
         <v>32</v>
       </c>
-      <c r="D12" s="63">
+      <c r="D12" s="80">
         <v>18</v>
       </c>
-      <c r="E12" s="64">
+      <c r="E12" s="81">
         <v>32</v>
       </c>
-      <c r="F12" s="64">
+      <c r="F12" s="81">
         <v>25</v>
       </c>
-      <c r="G12" s="64">
+      <c r="G12" s="81">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="58" t="s">
+    <row r="13" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="63">
-        <v>1</v>
-      </c>
-      <c r="D13" s="63">
-        <v>0</v>
-      </c>
-      <c r="E13" s="63">
-        <v>0</v>
-      </c>
-      <c r="F13" s="64">
+      <c r="C13" s="80">
+        <v>1</v>
+      </c>
+      <c r="D13" s="80">
+        <v>0</v>
+      </c>
+      <c r="E13" s="80">
+        <v>0</v>
+      </c>
+      <c r="F13" s="81">
         <v>3</v>
       </c>
-      <c r="G13" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="60" t="s">
+      <c r="G13" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="79" t="s">
         <v>136</v>
       </c>
-      <c r="C14" s="63">
-        <v>0</v>
-      </c>
-      <c r="D14" s="63">
-        <v>0</v>
-      </c>
-      <c r="E14" s="64">
-        <v>1</v>
-      </c>
-      <c r="F14" s="63">
-        <v>0</v>
-      </c>
-      <c r="G14" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="60" t="s">
+      <c r="C14" s="80">
+        <v>0</v>
+      </c>
+      <c r="D14" s="80">
+        <v>0</v>
+      </c>
+      <c r="E14" s="81">
+        <v>1</v>
+      </c>
+      <c r="F14" s="80">
+        <v>0</v>
+      </c>
+      <c r="G14" s="80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="C15" s="63">
-        <v>0</v>
-      </c>
-      <c r="D15" s="63">
-        <v>0</v>
-      </c>
-      <c r="E15" s="64">
-        <v>0</v>
-      </c>
-      <c r="F15" s="64">
-        <v>1</v>
-      </c>
-      <c r="G15" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="58" t="s">
+      <c r="C15" s="80">
+        <v>0</v>
+      </c>
+      <c r="D15" s="80">
+        <v>0</v>
+      </c>
+      <c r="E15" s="81">
+        <v>0</v>
+      </c>
+      <c r="F15" s="81">
+        <v>1</v>
+      </c>
+      <c r="G15" s="80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="79" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="63">
-        <v>0</v>
-      </c>
-      <c r="D16" s="63">
-        <v>2</v>
-      </c>
-      <c r="E16" s="63">
-        <v>0</v>
-      </c>
-      <c r="F16" s="63">
-        <v>0</v>
-      </c>
-      <c r="G16" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="58" t="s">
+      <c r="C16" s="80">
+        <v>0</v>
+      </c>
+      <c r="D16" s="80">
+        <v>2</v>
+      </c>
+      <c r="E16" s="80">
+        <v>0</v>
+      </c>
+      <c r="F16" s="80">
+        <v>0</v>
+      </c>
+      <c r="G16" s="80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="79" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="63">
-        <v>1</v>
-      </c>
-      <c r="D17" s="63">
-        <v>1</v>
-      </c>
-      <c r="E17" s="64">
+      <c r="C17" s="80">
+        <v>1</v>
+      </c>
+      <c r="D17" s="80">
+        <v>1</v>
+      </c>
+      <c r="E17" s="81">
         <v>6</v>
       </c>
-      <c r="F17" s="64">
+      <c r="F17" s="81">
         <v>6</v>
       </c>
-      <c r="G17" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="58" t="s">
+      <c r="G17" s="80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="63">
+      <c r="C18" s="80">
         <v>6</v>
       </c>
-      <c r="D18" s="63">
+      <c r="D18" s="80">
         <v>3</v>
       </c>
-      <c r="E18" s="64">
+      <c r="E18" s="81">
         <v>5</v>
       </c>
-      <c r="F18" s="64">
-        <v>2</v>
-      </c>
-      <c r="G18" s="64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="58" t="s">
+      <c r="F18" s="81">
+        <v>2</v>
+      </c>
+      <c r="G18" s="81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="63">
-        <v>1</v>
-      </c>
-      <c r="D19" s="63">
-        <v>0</v>
-      </c>
-      <c r="E19" s="63">
-        <v>0</v>
-      </c>
-      <c r="F19" s="63">
-        <v>0</v>
-      </c>
-      <c r="G19" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="60" t="s">
+      <c r="C19" s="80">
+        <v>1</v>
+      </c>
+      <c r="D19" s="80">
+        <v>0</v>
+      </c>
+      <c r="E19" s="80">
+        <v>0</v>
+      </c>
+      <c r="F19" s="80">
+        <v>0</v>
+      </c>
+      <c r="G19" s="80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="63">
-        <v>0</v>
-      </c>
-      <c r="D20" s="63">
-        <v>0</v>
-      </c>
-      <c r="E20" s="63">
-        <v>0</v>
-      </c>
-      <c r="F20" s="63">
-        <v>1</v>
-      </c>
-      <c r="G20" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="58" t="s">
+      <c r="C20" s="80">
+        <v>0</v>
+      </c>
+      <c r="D20" s="80">
+        <v>0</v>
+      </c>
+      <c r="E20" s="80">
+        <v>0</v>
+      </c>
+      <c r="F20" s="80">
+        <v>1</v>
+      </c>
+      <c r="G20" s="80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="79" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="63">
-        <v>1</v>
-      </c>
-      <c r="D21" s="63">
+      <c r="C21" s="80">
+        <v>1</v>
+      </c>
+      <c r="D21" s="80">
         <v>4</v>
       </c>
-      <c r="E21" s="63">
-        <v>0</v>
-      </c>
-      <c r="F21" s="64">
-        <v>1</v>
-      </c>
-      <c r="G21" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="58" t="s">
+      <c r="E21" s="80">
+        <v>0</v>
+      </c>
+      <c r="F21" s="81">
+        <v>1</v>
+      </c>
+      <c r="G21" s="80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="79" t="s">
         <v>144</v>
       </c>
-      <c r="C22" s="63">
+      <c r="C22" s="80">
         <v>4</v>
       </c>
-      <c r="D22" s="63">
-        <v>1</v>
-      </c>
-      <c r="E22" s="63">
-        <v>0</v>
-      </c>
-      <c r="F22" s="63">
-        <v>0</v>
-      </c>
-      <c r="G22" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="60" t="s">
+      <c r="D22" s="80">
+        <v>1</v>
+      </c>
+      <c r="E22" s="80">
+        <v>0</v>
+      </c>
+      <c r="F22" s="80">
+        <v>0</v>
+      </c>
+      <c r="G22" s="80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="63">
-        <v>0</v>
-      </c>
-      <c r="D23" s="63">
-        <v>0</v>
-      </c>
-      <c r="E23" s="64">
-        <v>2</v>
-      </c>
-      <c r="F23" s="64">
-        <v>1</v>
-      </c>
-      <c r="G23" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="58" t="s">
+      <c r="C23" s="80">
+        <v>0</v>
+      </c>
+      <c r="D23" s="80">
+        <v>0</v>
+      </c>
+      <c r="E23" s="81">
+        <v>2</v>
+      </c>
+      <c r="F23" s="81">
+        <v>1</v>
+      </c>
+      <c r="G23" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="63">
+      <c r="C24" s="80">
         <v>8</v>
       </c>
-      <c r="D24" s="63">
+      <c r="D24" s="80">
         <v>5</v>
       </c>
-      <c r="E24" s="64">
+      <c r="E24" s="81">
         <v>7</v>
       </c>
-      <c r="F24" s="64">
+      <c r="F24" s="81">
         <v>5</v>
       </c>
-      <c r="G24" s="64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="58" t="s">
+      <c r="G24" s="81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="63">
+      <c r="C25" s="80">
         <v>6</v>
       </c>
-      <c r="D25" s="63">
+      <c r="D25" s="80">
         <v>10</v>
       </c>
-      <c r="E25" s="64">
-        <v>2</v>
-      </c>
-      <c r="F25" s="64">
+      <c r="E25" s="81">
+        <v>2</v>
+      </c>
+      <c r="F25" s="81">
         <v>3</v>
       </c>
-      <c r="G25" s="64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="58" t="s">
+      <c r="G25" s="81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="79" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="63">
-        <v>2</v>
-      </c>
-      <c r="D26" s="63">
-        <v>2</v>
-      </c>
-      <c r="E26" s="64">
+      <c r="C26" s="80">
+        <v>2</v>
+      </c>
+      <c r="D26" s="80">
+        <v>2</v>
+      </c>
+      <c r="E26" s="81">
         <v>3</v>
       </c>
-      <c r="F26" s="63">
-        <v>0</v>
-      </c>
-      <c r="G26" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="58" t="s">
+      <c r="F26" s="80">
+        <v>0</v>
+      </c>
+      <c r="G26" s="80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="63">
-        <v>0</v>
-      </c>
-      <c r="D27" s="63">
+      <c r="C27" s="80">
+        <v>0</v>
+      </c>
+      <c r="D27" s="80">
         <v>5</v>
       </c>
-      <c r="E27" s="64">
-        <v>1</v>
-      </c>
-      <c r="F27" s="64">
+      <c r="E27" s="81">
+        <v>1</v>
+      </c>
+      <c r="F27" s="81">
         <v>3</v>
       </c>
-      <c r="G27" s="64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="60" t="s">
+      <c r="G27" s="81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="63">
-        <v>0</v>
-      </c>
-      <c r="D28" s="63">
-        <v>0</v>
-      </c>
-      <c r="E28" s="64">
-        <v>0</v>
-      </c>
-      <c r="F28" s="64">
-        <v>1</v>
-      </c>
-      <c r="G28" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="58" t="s">
+      <c r="C28" s="80">
+        <v>0</v>
+      </c>
+      <c r="D28" s="80">
+        <v>0</v>
+      </c>
+      <c r="E28" s="81">
+        <v>0</v>
+      </c>
+      <c r="F28" s="81">
+        <v>1</v>
+      </c>
+      <c r="G28" s="80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="63">
-        <v>0</v>
-      </c>
-      <c r="D29" s="63">
-        <v>1</v>
-      </c>
-      <c r="E29" s="64">
-        <v>2</v>
-      </c>
-      <c r="F29" s="64">
+      <c r="C29" s="80">
+        <v>0</v>
+      </c>
+      <c r="D29" s="80">
+        <v>1</v>
+      </c>
+      <c r="E29" s="81">
+        <v>2</v>
+      </c>
+      <c r="F29" s="81">
         <v>4</v>
       </c>
-      <c r="G29" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="60" t="s">
+      <c r="G29" s="80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="79" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="63">
-        <v>0</v>
-      </c>
-      <c r="D30" s="63">
-        <v>0</v>
-      </c>
-      <c r="E30" s="64">
-        <v>1</v>
-      </c>
-      <c r="F30" s="63">
-        <v>0</v>
-      </c>
-      <c r="G30" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="58" t="s">
+      <c r="C30" s="80">
+        <v>0</v>
+      </c>
+      <c r="D30" s="80">
+        <v>0</v>
+      </c>
+      <c r="E30" s="81">
+        <v>1</v>
+      </c>
+      <c r="F30" s="80">
+        <v>0</v>
+      </c>
+      <c r="G30" s="80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="63">
+      <c r="C31" s="80">
         <v>4</v>
       </c>
-      <c r="D31" s="63">
+      <c r="D31" s="80">
         <v>4</v>
       </c>
-      <c r="E31" s="64">
+      <c r="E31" s="81">
         <v>3</v>
       </c>
-      <c r="F31" s="64">
-        <v>1</v>
-      </c>
-      <c r="G31" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="58" t="s">
+      <c r="F31" s="81">
+        <v>1</v>
+      </c>
+      <c r="G31" s="80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="79" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="63">
-        <v>2</v>
-      </c>
-      <c r="D32" s="63">
-        <v>0</v>
-      </c>
-      <c r="E32" s="63">
-        <v>0</v>
-      </c>
-      <c r="F32" s="63">
-        <v>0</v>
-      </c>
-      <c r="G32" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="58" t="s">
+      <c r="C32" s="80">
+        <v>2</v>
+      </c>
+      <c r="D32" s="80">
+        <v>0</v>
+      </c>
+      <c r="E32" s="80">
+        <v>0</v>
+      </c>
+      <c r="F32" s="80">
+        <v>0</v>
+      </c>
+      <c r="G32" s="80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="C33" s="63">
+      <c r="C33" s="80">
         <v>5</v>
       </c>
-      <c r="D33" s="63">
+      <c r="D33" s="80">
         <v>4</v>
       </c>
-      <c r="E33" s="64">
+      <c r="E33" s="81">
         <v>4</v>
       </c>
-      <c r="F33" s="64">
-        <v>2</v>
-      </c>
-      <c r="G33" s="64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="58" t="s">
+      <c r="F33" s="81">
+        <v>2</v>
+      </c>
+      <c r="G33" s="81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="C34" s="63">
+      <c r="C34" s="80">
         <v>76</v>
       </c>
-      <c r="D34" s="63">
+      <c r="D34" s="80">
         <v>71</v>
       </c>
-      <c r="E34" s="64">
+      <c r="E34" s="81">
         <v>70</v>
       </c>
-      <c r="F34" s="64">
+      <c r="F34" s="81">
         <v>52</v>
       </c>
-      <c r="G34" s="64">
+      <c r="G34" s="81">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="58" t="s">
+    <row r="35" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="79" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="63">
-        <v>1</v>
-      </c>
-      <c r="D35" s="63">
-        <v>0</v>
-      </c>
-      <c r="E35" s="64">
-        <v>1</v>
-      </c>
-      <c r="F35" s="63">
-        <v>0</v>
-      </c>
-      <c r="G35" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="58" t="s">
+      <c r="C35" s="80">
+        <v>1</v>
+      </c>
+      <c r="D35" s="80">
+        <v>0</v>
+      </c>
+      <c r="E35" s="81">
+        <v>1</v>
+      </c>
+      <c r="F35" s="80">
+        <v>0</v>
+      </c>
+      <c r="G35" s="80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="59" t="s">
+      <c r="B36" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="63">
+      <c r="C36" s="80">
         <v>29</v>
       </c>
-      <c r="D36" s="63">
+      <c r="D36" s="80">
         <v>23</v>
       </c>
-      <c r="E36" s="64">
+      <c r="E36" s="81">
         <v>20</v>
       </c>
-      <c r="F36" s="64">
+      <c r="F36" s="81">
         <v>23</v>
       </c>
-      <c r="G36" s="64">
+      <c r="G36" s="81">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="58" t="s">
+    <row r="37" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="79" t="s">
         <v>120</v>
       </c>
-      <c r="C37" s="63">
+      <c r="C37" s="80">
         <v>10</v>
       </c>
-      <c r="D37" s="63">
+      <c r="D37" s="80">
         <v>6</v>
       </c>
-      <c r="E37" s="64">
+      <c r="E37" s="81">
         <v>5</v>
       </c>
-      <c r="F37" s="64">
+      <c r="F37" s="81">
         <v>4</v>
       </c>
-      <c r="G37" s="64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="60" t="s">
+      <c r="G37" s="81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="59" t="s">
+      <c r="B38" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="63">
-        <v>0</v>
-      </c>
-      <c r="D38" s="63">
-        <v>0</v>
-      </c>
-      <c r="E38" s="64">
-        <v>1</v>
-      </c>
-      <c r="F38" s="63">
-        <v>0</v>
-      </c>
-      <c r="G38" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="58" t="s">
+      <c r="C38" s="80">
+        <v>0</v>
+      </c>
+      <c r="D38" s="80">
+        <v>0</v>
+      </c>
+      <c r="E38" s="81">
+        <v>1</v>
+      </c>
+      <c r="F38" s="80">
+        <v>0</v>
+      </c>
+      <c r="G38" s="80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="59" t="s">
+      <c r="B39" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="C39" s="63">
-        <v>0</v>
-      </c>
-      <c r="D39" s="63">
+      <c r="C39" s="80">
+        <v>0</v>
+      </c>
+      <c r="D39" s="80">
         <v>4</v>
       </c>
-      <c r="E39" s="64">
+      <c r="E39" s="81">
         <v>4</v>
       </c>
-      <c r="F39" s="63">
-        <v>0</v>
-      </c>
-      <c r="G39" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="58" t="s">
+      <c r="F39" s="80">
+        <v>0</v>
+      </c>
+      <c r="G39" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="59" t="s">
+      <c r="B40" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="63">
+      <c r="C40" s="80">
         <v>7</v>
       </c>
-      <c r="D40" s="63">
+      <c r="D40" s="80">
         <v>17</v>
       </c>
-      <c r="E40" s="64">
+      <c r="E40" s="81">
         <v>8</v>
       </c>
-      <c r="F40" s="64">
+      <c r="F40" s="81">
         <v>8</v>
       </c>
-      <c r="G40" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="58" t="s">
+      <c r="G40" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="79" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="63">
+      <c r="C41" s="80">
         <v>18</v>
       </c>
-      <c r="D41" s="63">
+      <c r="D41" s="80">
         <v>12</v>
       </c>
-      <c r="E41" s="64">
+      <c r="E41" s="81">
         <v>11</v>
       </c>
-      <c r="F41" s="64">
+      <c r="F41" s="81">
         <v>15</v>
       </c>
-      <c r="G41" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="58" t="s">
+      <c r="G41" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="59" t="s">
+      <c r="B42" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="C42" s="63">
-        <v>2</v>
-      </c>
-      <c r="D42" s="63">
-        <v>2</v>
-      </c>
-      <c r="E42" s="64">
+      <c r="C42" s="80">
+        <v>2</v>
+      </c>
+      <c r="D42" s="80">
+        <v>2</v>
+      </c>
+      <c r="E42" s="81">
         <v>19</v>
       </c>
-      <c r="F42" s="64">
+      <c r="F42" s="81">
         <v>74</v>
       </c>
-      <c r="G42" s="64">
+      <c r="G42" s="81">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="58" t="s">
+    <row r="43" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="59" t="s">
+      <c r="B43" s="79" t="s">
         <v>125</v>
       </c>
-      <c r="C43" s="63">
+      <c r="C43" s="80">
         <v>18</v>
       </c>
-      <c r="D43" s="63">
+      <c r="D43" s="80">
         <v>7</v>
       </c>
-      <c r="E43" s="64">
+      <c r="E43" s="81">
         <v>10</v>
       </c>
-      <c r="F43" s="64">
+      <c r="F43" s="81">
         <v>16</v>
       </c>
-      <c r="G43" s="64">
+      <c r="G43" s="81">
         <v>3</v>
       </c>
     </row>
@@ -6731,7 +7149,7 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="87" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6739,8 +7157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6752,43 +7170,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="102" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="98"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="99"/>
+      <c r="A3" s="103"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="104"/>
       <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
@@ -6811,1283 +7229,1283 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
+    <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="67" t="s">
+      <c r="B4" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="68">
+      <c r="D4" s="63">
         <v>83071</v>
       </c>
-      <c r="E4" s="68">
+      <c r="E4" s="63">
         <v>23505</v>
       </c>
-      <c r="F4" s="68">
+      <c r="F4" s="63">
         <v>27</v>
       </c>
-      <c r="G4" s="68">
+      <c r="G4" s="63">
         <v>32</v>
       </c>
-      <c r="H4" s="68">
+      <c r="H4" s="63">
         <v>43262</v>
       </c>
-      <c r="I4" s="68">
+      <c r="I4" s="63">
         <v>1299</v>
       </c>
-      <c r="J4" s="68">
+      <c r="J4" s="63">
         <v>14946</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="71">
+      <c r="D5" s="66">
         <v>6250</v>
       </c>
-      <c r="E5" s="71">
+      <c r="E5" s="66">
         <v>2609</v>
       </c>
-      <c r="F5" s="71">
-        <v>0</v>
-      </c>
-      <c r="G5" s="71">
-        <v>0</v>
-      </c>
-      <c r="H5" s="71">
+      <c r="F5" s="66">
+        <v>0</v>
+      </c>
+      <c r="G5" s="66">
+        <v>0</v>
+      </c>
+      <c r="H5" s="66">
         <v>2078</v>
       </c>
-      <c r="I5" s="71">
+      <c r="I5" s="66">
         <v>52</v>
       </c>
-      <c r="J5" s="71">
+      <c r="J5" s="66">
         <v>1511</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="71">
+      <c r="D6" s="66">
         <v>5527</v>
       </c>
-      <c r="E6" s="71">
+      <c r="E6" s="66">
         <v>1138</v>
       </c>
-      <c r="F6" s="71">
+      <c r="F6" s="66">
         <v>7</v>
       </c>
-      <c r="G6" s="71">
+      <c r="G6" s="66">
         <v>7</v>
       </c>
-      <c r="H6" s="71">
+      <c r="H6" s="66">
         <v>3890</v>
       </c>
-      <c r="I6" s="71">
+      <c r="I6" s="66">
         <v>82</v>
       </c>
-      <c r="J6" s="71">
+      <c r="J6" s="66">
         <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="71">
+      <c r="D7" s="66">
         <v>4637</v>
       </c>
-      <c r="E7" s="71">
+      <c r="E7" s="66">
         <v>1300</v>
       </c>
-      <c r="F7" s="71">
+      <c r="F7" s="66">
         <v>5</v>
       </c>
-      <c r="G7" s="71">
-        <v>1</v>
-      </c>
-      <c r="H7" s="71">
+      <c r="G7" s="66">
+        <v>1</v>
+      </c>
+      <c r="H7" s="66">
         <v>3035</v>
       </c>
-      <c r="I7" s="71">
+      <c r="I7" s="66">
         <v>59</v>
       </c>
-      <c r="J7" s="71">
+      <c r="J7" s="66">
         <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="71">
+      <c r="D8" s="66">
         <v>2728</v>
       </c>
-      <c r="E8" s="71">
+      <c r="E8" s="66">
         <v>630</v>
       </c>
-      <c r="F8" s="71">
-        <v>0</v>
-      </c>
-      <c r="G8" s="71">
-        <v>1</v>
-      </c>
-      <c r="H8" s="71">
+      <c r="F8" s="66">
+        <v>0</v>
+      </c>
+      <c r="G8" s="66">
+        <v>1</v>
+      </c>
+      <c r="H8" s="66">
         <v>1586</v>
       </c>
-      <c r="I8" s="71">
+      <c r="I8" s="66">
         <v>61</v>
       </c>
-      <c r="J8" s="71">
+      <c r="J8" s="66">
         <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="71">
+      <c r="D9" s="66">
         <v>2601</v>
       </c>
-      <c r="E9" s="71">
+      <c r="E9" s="66">
         <v>767</v>
       </c>
-      <c r="F9" s="71">
-        <v>0</v>
-      </c>
-      <c r="G9" s="71">
-        <v>1</v>
-      </c>
-      <c r="H9" s="71">
+      <c r="F9" s="66">
+        <v>0</v>
+      </c>
+      <c r="G9" s="66">
+        <v>1</v>
+      </c>
+      <c r="H9" s="66">
         <v>1573</v>
       </c>
-      <c r="I9" s="71">
+      <c r="I9" s="66">
         <v>48</v>
       </c>
-      <c r="J9" s="71">
+      <c r="J9" s="66">
         <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="71">
+      <c r="D10" s="66">
         <v>2583</v>
       </c>
-      <c r="E10" s="71">
+      <c r="E10" s="66">
         <v>189</v>
       </c>
-      <c r="F10" s="71">
-        <v>1</v>
-      </c>
-      <c r="G10" s="71">
-        <v>2</v>
-      </c>
-      <c r="H10" s="71">
+      <c r="F10" s="66">
+        <v>1</v>
+      </c>
+      <c r="G10" s="66">
+        <v>2</v>
+      </c>
+      <c r="H10" s="66">
         <v>1842</v>
       </c>
-      <c r="I10" s="71">
+      <c r="I10" s="66">
         <v>69</v>
       </c>
-      <c r="J10" s="71">
+      <c r="J10" s="66">
         <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="71">
+      <c r="D11" s="66">
         <v>1816</v>
       </c>
-      <c r="E11" s="71">
+      <c r="E11" s="66">
         <v>1021</v>
       </c>
-      <c r="F11" s="71">
-        <v>0</v>
-      </c>
-      <c r="G11" s="71">
-        <v>1</v>
-      </c>
-      <c r="H11" s="71">
+      <c r="F11" s="66">
+        <v>0</v>
+      </c>
+      <c r="G11" s="66">
+        <v>1</v>
+      </c>
+      <c r="H11" s="66">
         <v>205</v>
       </c>
-      <c r="I11" s="71">
+      <c r="I11" s="66">
         <v>12</v>
       </c>
-      <c r="J11" s="71">
+      <c r="J11" s="66">
         <v>577</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="71">
+      <c r="D12" s="66">
         <v>1670</v>
       </c>
-      <c r="E12" s="71">
+      <c r="E12" s="66">
         <v>491</v>
       </c>
-      <c r="F12" s="71">
-        <v>1</v>
-      </c>
-      <c r="G12" s="71">
-        <v>1</v>
-      </c>
-      <c r="H12" s="71">
+      <c r="F12" s="66">
+        <v>1</v>
+      </c>
+      <c r="G12" s="66">
+        <v>1</v>
+      </c>
+      <c r="H12" s="66">
         <v>1044</v>
       </c>
-      <c r="I12" s="71">
+      <c r="I12" s="66">
         <v>19</v>
       </c>
-      <c r="J12" s="71">
+      <c r="J12" s="66">
         <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="71">
+      <c r="D13" s="66">
         <v>1657</v>
       </c>
-      <c r="E13" s="71">
+      <c r="E13" s="66">
         <v>472</v>
       </c>
-      <c r="F13" s="71">
-        <v>0</v>
-      </c>
-      <c r="G13" s="71">
-        <v>0</v>
-      </c>
-      <c r="H13" s="71">
+      <c r="F13" s="66">
+        <v>0</v>
+      </c>
+      <c r="G13" s="66">
+        <v>0</v>
+      </c>
+      <c r="H13" s="66">
         <v>1054</v>
       </c>
-      <c r="I13" s="71">
+      <c r="I13" s="66">
         <v>26</v>
       </c>
-      <c r="J13" s="71">
+      <c r="J13" s="66">
         <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="D14" s="71">
+      <c r="D14" s="66">
         <v>1616</v>
       </c>
-      <c r="E14" s="71">
+      <c r="E14" s="66">
         <v>346</v>
       </c>
-      <c r="F14" s="71">
-        <v>0</v>
-      </c>
-      <c r="G14" s="71">
-        <v>1</v>
-      </c>
-      <c r="H14" s="71">
+      <c r="F14" s="66">
+        <v>0</v>
+      </c>
+      <c r="G14" s="66">
+        <v>1</v>
+      </c>
+      <c r="H14" s="66">
         <v>994</v>
       </c>
-      <c r="I14" s="71">
+      <c r="I14" s="66">
         <v>27</v>
       </c>
-      <c r="J14" s="71">
+      <c r="J14" s="66">
         <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="71">
+      <c r="D15" s="66">
         <v>10695</v>
       </c>
-      <c r="E15" s="71">
+      <c r="E15" s="66">
         <v>3812</v>
       </c>
-      <c r="F15" s="71">
-        <v>1</v>
-      </c>
-      <c r="G15" s="71">
-        <v>1</v>
-      </c>
-      <c r="H15" s="71">
+      <c r="F15" s="66">
+        <v>1</v>
+      </c>
+      <c r="G15" s="66">
+        <v>1</v>
+      </c>
+      <c r="H15" s="66">
         <v>4990</v>
       </c>
-      <c r="I15" s="71">
+      <c r="I15" s="66">
         <v>142</v>
       </c>
-      <c r="J15" s="71">
+      <c r="J15" s="66">
         <v>1749</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="71">
+      <c r="D16" s="66">
         <v>41291</v>
       </c>
-      <c r="E16" s="71">
+      <c r="E16" s="66">
         <v>10730</v>
       </c>
-      <c r="F16" s="71">
+      <c r="F16" s="66">
         <v>12</v>
       </c>
-      <c r="G16" s="71">
+      <c r="G16" s="66">
         <v>16</v>
       </c>
-      <c r="H16" s="71">
+      <c r="H16" s="66">
         <v>20971</v>
       </c>
-      <c r="I16" s="71">
+      <c r="I16" s="66">
         <v>702</v>
       </c>
-      <c r="J16" s="71">
+      <c r="J16" s="66">
         <v>8860</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="67" t="s">
+      <c r="B17" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="68">
+      <c r="D17" s="63">
         <v>45784</v>
       </c>
-      <c r="E17" s="68">
+      <c r="E17" s="63">
         <v>12345</v>
       </c>
-      <c r="F17" s="68">
+      <c r="F17" s="63">
         <v>13</v>
       </c>
-      <c r="G17" s="68">
+      <c r="G17" s="63">
         <v>19</v>
       </c>
-      <c r="H17" s="68">
+      <c r="H17" s="63">
         <v>24026</v>
       </c>
-      <c r="I17" s="68">
+      <c r="I17" s="63">
         <v>720</v>
       </c>
-      <c r="J17" s="68">
+      <c r="J17" s="63">
         <v>8661</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="71">
+      <c r="D18" s="66">
         <v>3293</v>
       </c>
-      <c r="E18" s="71">
+      <c r="E18" s="66">
         <v>1276</v>
       </c>
-      <c r="F18" s="71">
-        <v>0</v>
-      </c>
-      <c r="G18" s="71">
-        <v>0</v>
-      </c>
-      <c r="H18" s="71">
+      <c r="F18" s="66">
+        <v>0</v>
+      </c>
+      <c r="G18" s="66">
+        <v>0</v>
+      </c>
+      <c r="H18" s="66">
         <v>1145</v>
       </c>
-      <c r="I18" s="71">
+      <c r="I18" s="66">
         <v>28</v>
       </c>
-      <c r="J18" s="71">
+      <c r="J18" s="66">
         <v>844</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="71">
+      <c r="D19" s="66">
         <v>2963</v>
       </c>
-      <c r="E19" s="71">
+      <c r="E19" s="66">
         <v>603</v>
       </c>
-      <c r="F19" s="71">
+      <c r="F19" s="66">
         <v>3</v>
       </c>
-      <c r="G19" s="71">
+      <c r="G19" s="66">
         <v>3</v>
       </c>
-      <c r="H19" s="71">
+      <c r="H19" s="66">
         <v>2114</v>
       </c>
-      <c r="I19" s="71">
+      <c r="I19" s="66">
         <v>46</v>
       </c>
-      <c r="J19" s="71">
+      <c r="J19" s="66">
         <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="71">
+      <c r="D20" s="66">
         <v>2248</v>
       </c>
-      <c r="E20" s="71">
+      <c r="E20" s="66">
         <v>170</v>
       </c>
-      <c r="F20" s="71">
-        <v>1</v>
-      </c>
-      <c r="G20" s="71">
-        <v>2</v>
-      </c>
-      <c r="H20" s="71">
+      <c r="F20" s="66">
+        <v>1</v>
+      </c>
+      <c r="G20" s="66">
+        <v>2</v>
+      </c>
+      <c r="H20" s="66">
         <v>1597</v>
       </c>
-      <c r="I20" s="71">
+      <c r="I20" s="66">
         <v>59</v>
       </c>
-      <c r="J20" s="71">
+      <c r="J20" s="66">
         <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="69" t="s">
+      <c r="A21" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="71">
+      <c r="D21" s="66">
         <v>2175</v>
       </c>
-      <c r="E21" s="71">
+      <c r="E21" s="66">
         <v>514</v>
       </c>
-      <c r="F21" s="71">
-        <v>0</v>
-      </c>
-      <c r="G21" s="71">
-        <v>1</v>
-      </c>
-      <c r="H21" s="71">
+      <c r="F21" s="66">
+        <v>0</v>
+      </c>
+      <c r="G21" s="66">
+        <v>1</v>
+      </c>
+      <c r="H21" s="66">
         <v>1265</v>
       </c>
-      <c r="I21" s="71">
+      <c r="I21" s="66">
         <v>50</v>
       </c>
-      <c r="J21" s="71">
+      <c r="J21" s="66">
         <v>345</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="70" t="s">
+      <c r="B22" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="70" t="s">
+      <c r="C22" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="71">
+      <c r="D22" s="66">
         <v>1797</v>
       </c>
-      <c r="E22" s="71">
+      <c r="E22" s="66">
         <v>506</v>
       </c>
-      <c r="F22" s="71">
-        <v>2</v>
-      </c>
-      <c r="G22" s="71">
-        <v>0</v>
-      </c>
-      <c r="H22" s="71">
+      <c r="F22" s="66">
+        <v>2</v>
+      </c>
+      <c r="G22" s="66">
+        <v>0</v>
+      </c>
+      <c r="H22" s="66">
         <v>1178</v>
       </c>
-      <c r="I22" s="71">
+      <c r="I22" s="66">
         <v>20</v>
       </c>
-      <c r="J22" s="71">
+      <c r="J22" s="66">
         <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="71">
+      <c r="D23" s="66">
         <v>1649</v>
       </c>
-      <c r="E23" s="71">
+      <c r="E23" s="66">
         <v>468</v>
       </c>
-      <c r="F23" s="71">
-        <v>0</v>
-      </c>
-      <c r="G23" s="71">
-        <v>0</v>
-      </c>
-      <c r="H23" s="71">
+      <c r="F23" s="66">
+        <v>0</v>
+      </c>
+      <c r="G23" s="66">
+        <v>0</v>
+      </c>
+      <c r="H23" s="66">
         <v>1000</v>
       </c>
-      <c r="I23" s="71">
+      <c r="I23" s="66">
         <v>29</v>
       </c>
-      <c r="J23" s="71">
+      <c r="J23" s="66">
         <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="70" t="s">
+      <c r="B24" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="70" t="s">
+      <c r="C24" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="D24" s="71">
+      <c r="D24" s="66">
         <v>1327</v>
       </c>
-      <c r="E24" s="71">
+      <c r="E24" s="66">
         <v>291</v>
       </c>
-      <c r="F24" s="71">
-        <v>0</v>
-      </c>
-      <c r="G24" s="71">
-        <v>1</v>
-      </c>
-      <c r="H24" s="71">
+      <c r="F24" s="66">
+        <v>0</v>
+      </c>
+      <c r="G24" s="66">
+        <v>1</v>
+      </c>
+      <c r="H24" s="66">
         <v>824</v>
       </c>
-      <c r="I24" s="71">
+      <c r="I24" s="66">
         <v>23</v>
       </c>
-      <c r="J24" s="71">
+      <c r="J24" s="66">
         <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="69" t="s">
+      <c r="A25" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="70" t="s">
+      <c r="C25" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="71">
+      <c r="D25" s="66">
         <v>920</v>
       </c>
-      <c r="E25" s="71">
+      <c r="E25" s="66">
         <v>501</v>
       </c>
-      <c r="F25" s="71">
-        <v>0</v>
-      </c>
-      <c r="G25" s="71">
-        <v>1</v>
-      </c>
-      <c r="H25" s="71">
+      <c r="F25" s="66">
+        <v>0</v>
+      </c>
+      <c r="G25" s="66">
+        <v>1</v>
+      </c>
+      <c r="H25" s="66">
         <v>101</v>
       </c>
-      <c r="I25" s="71">
+      <c r="I25" s="66">
         <v>4</v>
       </c>
-      <c r="J25" s="71">
+      <c r="J25" s="66">
         <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="69" t="s">
+      <c r="A26" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="70" t="s">
+      <c r="C26" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="71">
+      <c r="D26" s="66">
         <v>833</v>
       </c>
-      <c r="E26" s="71">
+      <c r="E26" s="66">
         <v>242</v>
       </c>
-      <c r="F26" s="71">
-        <v>1</v>
-      </c>
-      <c r="G26" s="71">
-        <v>1</v>
-      </c>
-      <c r="H26" s="71">
+      <c r="F26" s="66">
+        <v>1</v>
+      </c>
+      <c r="G26" s="66">
+        <v>1</v>
+      </c>
+      <c r="H26" s="66">
         <v>529</v>
       </c>
-      <c r="I26" s="71">
+      <c r="I26" s="66">
         <v>11</v>
       </c>
-      <c r="J26" s="71">
+      <c r="J26" s="66">
         <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="70" t="s">
+      <c r="C27" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="71">
+      <c r="D27" s="66">
         <v>823</v>
       </c>
-      <c r="E27" s="71">
+      <c r="E27" s="66">
         <v>138</v>
       </c>
-      <c r="F27" s="71">
-        <v>0</v>
-      </c>
-      <c r="G27" s="71">
-        <v>0</v>
-      </c>
-      <c r="H27" s="71">
+      <c r="F27" s="66">
+        <v>0</v>
+      </c>
+      <c r="G27" s="66">
+        <v>0</v>
+      </c>
+      <c r="H27" s="66">
         <v>594</v>
       </c>
-      <c r="I27" s="71">
+      <c r="I27" s="66">
         <v>16</v>
       </c>
-      <c r="J27" s="71">
+      <c r="J27" s="66">
         <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="69" t="s">
+      <c r="A28" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="73" t="s">
+      <c r="C28" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="71">
+      <c r="D28" s="66">
         <v>5561</v>
       </c>
-      <c r="E28" s="71">
+      <c r="E28" s="66">
         <v>1893</v>
       </c>
-      <c r="F28" s="71">
-        <v>0</v>
-      </c>
-      <c r="G28" s="71">
-        <v>1</v>
-      </c>
-      <c r="H28" s="71">
+      <c r="F28" s="66">
+        <v>0</v>
+      </c>
+      <c r="G28" s="66">
+        <v>1</v>
+      </c>
+      <c r="H28" s="66">
         <v>2647</v>
       </c>
-      <c r="I28" s="71">
+      <c r="I28" s="66">
         <v>71</v>
       </c>
-      <c r="J28" s="71">
+      <c r="J28" s="66">
         <v>949</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="69" t="s">
+      <c r="A29" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="73" t="s">
+      <c r="C29" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="71">
+      <c r="D29" s="66">
         <v>22195</v>
       </c>
-      <c r="E29" s="71">
+      <c r="E29" s="66">
         <v>5743</v>
       </c>
-      <c r="F29" s="71">
+      <c r="F29" s="66">
         <v>6</v>
       </c>
-      <c r="G29" s="71">
+      <c r="G29" s="66">
         <v>9</v>
       </c>
-      <c r="H29" s="71">
+      <c r="H29" s="66">
         <v>11032</v>
       </c>
-      <c r="I29" s="71">
+      <c r="I29" s="66">
         <v>363</v>
       </c>
-      <c r="J29" s="71">
+      <c r="J29" s="66">
         <v>5042</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="67" t="s">
+      <c r="B30" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="68">
+      <c r="D30" s="63">
         <v>37287</v>
       </c>
-      <c r="E30" s="68">
+      <c r="E30" s="63">
         <v>11160</v>
       </c>
-      <c r="F30" s="68">
+      <c r="F30" s="63">
         <v>14</v>
       </c>
-      <c r="G30" s="68">
+      <c r="G30" s="63">
         <v>13</v>
       </c>
-      <c r="H30" s="68">
+      <c r="H30" s="63">
         <v>19236</v>
       </c>
-      <c r="I30" s="68">
+      <c r="I30" s="63">
         <v>579</v>
       </c>
-      <c r="J30" s="68">
+      <c r="J30" s="63">
         <v>6285</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="69" t="s">
+      <c r="A31" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="70" t="s">
+      <c r="B31" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="70" t="s">
+      <c r="C31" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="71">
+      <c r="D31" s="66">
         <v>2957</v>
       </c>
-      <c r="E31" s="71">
+      <c r="E31" s="66">
         <v>1333</v>
       </c>
-      <c r="F31" s="71">
-        <v>0</v>
-      </c>
-      <c r="G31" s="71">
-        <v>0</v>
-      </c>
-      <c r="H31" s="71">
+      <c r="F31" s="66">
+        <v>0</v>
+      </c>
+      <c r="G31" s="66">
+        <v>0</v>
+      </c>
+      <c r="H31" s="66">
         <v>933</v>
       </c>
-      <c r="I31" s="71">
+      <c r="I31" s="66">
         <v>24</v>
       </c>
-      <c r="J31" s="71">
+      <c r="J31" s="66">
         <v>667</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="69" t="s">
+      <c r="A32" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="70" t="s">
+      <c r="B32" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="70" t="s">
+      <c r="C32" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="71">
+      <c r="D32" s="66">
         <v>2840</v>
       </c>
-      <c r="E32" s="71">
+      <c r="E32" s="66">
         <v>794</v>
       </c>
-      <c r="F32" s="71">
+      <c r="F32" s="66">
         <v>3</v>
       </c>
-      <c r="G32" s="71">
-        <v>1</v>
-      </c>
-      <c r="H32" s="71">
+      <c r="G32" s="66">
+        <v>1</v>
+      </c>
+      <c r="H32" s="66">
         <v>1857</v>
       </c>
-      <c r="I32" s="71">
+      <c r="I32" s="66">
         <v>39</v>
       </c>
-      <c r="J32" s="71">
+      <c r="J32" s="66">
         <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="69" t="s">
+      <c r="A33" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="70" t="s">
+      <c r="B33" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="70" t="s">
+      <c r="C33" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="71">
+      <c r="D33" s="66">
         <v>2564</v>
       </c>
-      <c r="E33" s="71">
+      <c r="E33" s="66">
         <v>535</v>
       </c>
-      <c r="F33" s="71">
+      <c r="F33" s="66">
         <v>4</v>
       </c>
-      <c r="G33" s="71">
+      <c r="G33" s="66">
         <v>4</v>
       </c>
-      <c r="H33" s="71">
+      <c r="H33" s="66">
         <v>1776</v>
       </c>
-      <c r="I33" s="71">
+      <c r="I33" s="66">
         <v>36</v>
       </c>
-      <c r="J33" s="71">
+      <c r="J33" s="66">
         <v>209</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="69" t="s">
+      <c r="A34" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="70" t="s">
+      <c r="B34" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="70" t="s">
+      <c r="C34" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="71">
+      <c r="D34" s="66">
         <v>1005</v>
       </c>
-      <c r="E34" s="71">
+      <c r="E34" s="66">
         <v>279</v>
       </c>
-      <c r="F34" s="71">
-        <v>0</v>
-      </c>
-      <c r="G34" s="71">
-        <v>0</v>
-      </c>
-      <c r="H34" s="71">
+      <c r="F34" s="66">
+        <v>0</v>
+      </c>
+      <c r="G34" s="66">
+        <v>0</v>
+      </c>
+      <c r="H34" s="66">
         <v>648</v>
       </c>
-      <c r="I34" s="71">
+      <c r="I34" s="66">
         <v>16</v>
       </c>
-      <c r="J34" s="71">
+      <c r="J34" s="66">
         <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="69" t="s">
+      <c r="A35" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="70" t="s">
+      <c r="B35" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="70" t="s">
+      <c r="C35" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="71">
+      <c r="D35" s="66">
         <v>952</v>
       </c>
-      <c r="E35" s="71">
+      <c r="E35" s="66">
         <v>299</v>
       </c>
-      <c r="F35" s="71">
-        <v>0</v>
-      </c>
-      <c r="G35" s="71">
-        <v>1</v>
-      </c>
-      <c r="H35" s="71">
+      <c r="F35" s="66">
+        <v>0</v>
+      </c>
+      <c r="G35" s="66">
+        <v>1</v>
+      </c>
+      <c r="H35" s="66">
         <v>573</v>
       </c>
-      <c r="I35" s="71">
+      <c r="I35" s="66">
         <v>19</v>
       </c>
-      <c r="J35" s="71">
+      <c r="J35" s="66">
         <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="69" t="s">
+      <c r="A36" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="70" t="s">
+      <c r="B36" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="70" t="s">
+      <c r="C36" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="D36" s="71">
+      <c r="D36" s="66">
         <v>896</v>
       </c>
-      <c r="E36" s="71">
+      <c r="E36" s="66">
         <v>520</v>
       </c>
-      <c r="F36" s="71">
-        <v>0</v>
-      </c>
-      <c r="G36" s="71">
-        <v>0</v>
-      </c>
-      <c r="H36" s="71">
+      <c r="F36" s="66">
+        <v>0</v>
+      </c>
+      <c r="G36" s="66">
+        <v>0</v>
+      </c>
+      <c r="H36" s="66">
         <v>104</v>
       </c>
-      <c r="I36" s="71">
+      <c r="I36" s="66">
         <v>8</v>
       </c>
-      <c r="J36" s="71">
+      <c r="J36" s="66">
         <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="69" t="s">
+      <c r="A37" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="70" t="s">
+      <c r="B37" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="70" t="s">
+      <c r="C37" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="71">
+      <c r="D37" s="66">
         <v>837</v>
       </c>
-      <c r="E37" s="71">
+      <c r="E37" s="66">
         <v>249</v>
       </c>
-      <c r="F37" s="71">
-        <v>0</v>
-      </c>
-      <c r="G37" s="71">
-        <v>0</v>
-      </c>
-      <c r="H37" s="71">
+      <c r="F37" s="66">
+        <v>0</v>
+      </c>
+      <c r="G37" s="66">
+        <v>0</v>
+      </c>
+      <c r="H37" s="66">
         <v>515</v>
       </c>
-      <c r="I37" s="71">
+      <c r="I37" s="66">
         <v>8</v>
       </c>
-      <c r="J37" s="71">
+      <c r="J37" s="66">
         <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="69" t="s">
+      <c r="A38" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="70" t="s">
+      <c r="B38" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="70" t="s">
+      <c r="C38" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="D38" s="71">
+      <c r="D38" s="66">
         <v>761</v>
       </c>
-      <c r="E38" s="71">
+      <c r="E38" s="66">
         <v>157</v>
       </c>
-      <c r="F38" s="71">
-        <v>0</v>
-      </c>
-      <c r="G38" s="71">
-        <v>2</v>
-      </c>
-      <c r="H38" s="71">
+      <c r="F38" s="66">
+        <v>0</v>
+      </c>
+      <c r="G38" s="66">
+        <v>2</v>
+      </c>
+      <c r="H38" s="66">
         <v>528</v>
       </c>
-      <c r="I38" s="71">
+      <c r="I38" s="66">
         <v>15</v>
       </c>
-      <c r="J38" s="71">
+      <c r="J38" s="66">
         <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="69" t="s">
+      <c r="A39" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="70" t="s">
+      <c r="B39" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="70" t="s">
+      <c r="C39" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="71">
+      <c r="D39" s="66">
         <v>756</v>
       </c>
-      <c r="E39" s="71">
+      <c r="E39" s="66">
         <v>236</v>
       </c>
-      <c r="F39" s="71">
-        <v>0</v>
-      </c>
-      <c r="G39" s="71">
-        <v>0</v>
-      </c>
-      <c r="H39" s="71">
+      <c r="F39" s="66">
+        <v>0</v>
+      </c>
+      <c r="G39" s="66">
+        <v>0</v>
+      </c>
+      <c r="H39" s="66">
         <v>469</v>
       </c>
-      <c r="I39" s="71">
+      <c r="I39" s="66">
         <v>11</v>
       </c>
-      <c r="J39" s="71">
+      <c r="J39" s="66">
         <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="69" t="s">
+      <c r="A40" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="70" t="s">
+      <c r="B40" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="C40" s="70" t="s">
+      <c r="C40" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="D40" s="71">
+      <c r="D40" s="66">
         <v>746</v>
       </c>
-      <c r="E40" s="71">
+      <c r="E40" s="66">
         <v>211</v>
       </c>
-      <c r="F40" s="71">
-        <v>0</v>
-      </c>
-      <c r="G40" s="71">
-        <v>1</v>
-      </c>
-      <c r="H40" s="71">
+      <c r="F40" s="66">
+        <v>0</v>
+      </c>
+      <c r="G40" s="66">
+        <v>1</v>
+      </c>
+      <c r="H40" s="66">
         <v>448</v>
       </c>
-      <c r="I40" s="71">
+      <c r="I40" s="66">
         <v>20</v>
       </c>
-      <c r="J40" s="71">
+      <c r="J40" s="66">
         <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="69" t="s">
+      <c r="A41" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="72" t="s">
+      <c r="B41" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="73" t="s">
+      <c r="C41" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="D41" s="71">
+      <c r="D41" s="66">
         <v>5134</v>
       </c>
-      <c r="E41" s="71">
+      <c r="E41" s="66">
         <v>1919</v>
       </c>
-      <c r="F41" s="71">
-        <v>1</v>
-      </c>
-      <c r="G41" s="71">
-        <v>0</v>
-      </c>
-      <c r="H41" s="71">
+      <c r="F41" s="66">
+        <v>1</v>
+      </c>
+      <c r="G41" s="66">
+        <v>0</v>
+      </c>
+      <c r="H41" s="66">
         <v>2343</v>
       </c>
-      <c r="I41" s="71">
+      <c r="I41" s="66">
         <v>71</v>
       </c>
-      <c r="J41" s="71">
+      <c r="J41" s="66">
         <v>800</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="69" t="s">
+      <c r="A42" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="72" t="s">
+      <c r="B42" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="73" t="s">
+      <c r="C42" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="D42" s="71">
+      <c r="D42" s="66">
         <v>17839</v>
       </c>
-      <c r="E42" s="71">
+      <c r="E42" s="66">
         <v>4628</v>
       </c>
-      <c r="F42" s="71">
+      <c r="F42" s="66">
         <v>6</v>
       </c>
-      <c r="G42" s="71">
+      <c r="G42" s="66">
         <v>4</v>
       </c>
-      <c r="H42" s="71">
+      <c r="H42" s="66">
         <v>9042</v>
       </c>
-      <c r="I42" s="71">
+      <c r="I42" s="66">
         <v>312</v>
       </c>
-      <c r="J42" s="71">
+      <c r="J42" s="66">
         <v>3847</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="74" t="s">
+      <c r="A43" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" s="67" t="s">
+      <c r="B43" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="75">
-        <v>0</v>
-      </c>
-      <c r="E43" s="75">
-        <v>0</v>
-      </c>
-      <c r="F43" s="75">
-        <v>0</v>
-      </c>
-      <c r="G43" s="75">
-        <v>0</v>
-      </c>
-      <c r="H43" s="75">
-        <v>0</v>
-      </c>
-      <c r="I43" s="75">
-        <v>0</v>
-      </c>
-      <c r="J43" s="75">
+      <c r="D43" s="70">
+        <v>0</v>
+      </c>
+      <c r="E43" s="70">
+        <v>0</v>
+      </c>
+      <c r="F43" s="70">
+        <v>0</v>
+      </c>
+      <c r="G43" s="70">
+        <v>0</v>
+      </c>
+      <c r="H43" s="70">
+        <v>0</v>
+      </c>
+      <c r="I43" s="70">
+        <v>0</v>
+      </c>
+      <c r="J43" s="70">
         <v>0</v>
       </c>
     </row>
@@ -8097,43 +8515,43 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="100" t="s">
+      <c r="A46" s="105" t="s">
         <v>169</v>
       </c>
-      <c r="B46" s="100"/>
-      <c r="C46" s="100"/>
-      <c r="D46" s="100"/>
-      <c r="E46" s="100"/>
-      <c r="F46" s="100"/>
-      <c r="G46" s="100"/>
-      <c r="H46" s="100"/>
-      <c r="I46" s="100"/>
-      <c r="J46" s="100"/>
+      <c r="B46" s="105"/>
+      <c r="C46" s="105"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="105"/>
+      <c r="F46" s="105"/>
+      <c r="G46" s="105"/>
+      <c r="H46" s="105"/>
+      <c r="I46" s="105"/>
+      <c r="J46" s="105"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="95" t="s">
+      <c r="A47" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="95" t="s">
+      <c r="B47" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="C47" s="96" t="s">
+      <c r="C47" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="D47" s="96" t="s">
+      <c r="D47" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="E47" s="96"/>
-      <c r="F47" s="96"/>
-      <c r="G47" s="96"/>
-      <c r="H47" s="96"/>
-      <c r="I47" s="96"/>
-      <c r="J47" s="96"/>
+      <c r="E47" s="101"/>
+      <c r="F47" s="101"/>
+      <c r="G47" s="101"/>
+      <c r="H47" s="101"/>
+      <c r="I47" s="101"/>
+      <c r="J47" s="101"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="95"/>
-      <c r="B48" s="95"/>
-      <c r="C48" s="96"/>
+      <c r="A48" s="100"/>
+      <c r="B48" s="100"/>
+      <c r="C48" s="101"/>
       <c r="D48" s="1" t="s">
         <v>0</v>
       </c>
@@ -8157,1282 +8575,1282 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="76" t="s">
+      <c r="A49" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="B49" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="C49" s="67" t="s">
+      <c r="B49" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="68">
+      <c r="D49" s="63">
         <v>118465</v>
       </c>
-      <c r="E49" s="68">
+      <c r="E49" s="63">
         <v>34836</v>
       </c>
-      <c r="F49" s="68">
+      <c r="F49" s="63">
         <v>29</v>
       </c>
-      <c r="G49" s="68">
+      <c r="G49" s="63">
         <v>104</v>
       </c>
-      <c r="H49" s="68">
+      <c r="H49" s="63">
         <v>65436</v>
       </c>
-      <c r="I49" s="68">
+      <c r="I49" s="63">
         <v>1821</v>
       </c>
-      <c r="J49" s="68">
+      <c r="J49" s="63">
         <v>16239</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="78" t="s">
+      <c r="A50" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="B50" s="79" t="s">
+      <c r="B50" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="79" t="s">
+      <c r="C50" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="D50" s="71">
+      <c r="D50" s="66">
         <v>14628</v>
       </c>
-      <c r="E50" s="71">
+      <c r="E50" s="66">
         <v>2769</v>
       </c>
-      <c r="F50" s="71">
+      <c r="F50" s="66">
         <v>4</v>
       </c>
-      <c r="G50" s="71">
+      <c r="G50" s="66">
         <v>7</v>
       </c>
-      <c r="H50" s="71">
+      <c r="H50" s="66">
         <v>10649</v>
       </c>
-      <c r="I50" s="71">
+      <c r="I50" s="66">
         <v>221</v>
       </c>
-      <c r="J50" s="71">
+      <c r="J50" s="66">
         <v>978</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="78" t="s">
+      <c r="A51" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="B51" s="79" t="s">
+      <c r="B51" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="79" t="s">
+      <c r="C51" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="D51" s="71">
+      <c r="D51" s="66">
         <v>11083</v>
       </c>
-      <c r="E51" s="71">
+      <c r="E51" s="66">
         <v>3031</v>
       </c>
-      <c r="F51" s="71">
+      <c r="F51" s="66">
         <v>3</v>
       </c>
-      <c r="G51" s="71">
+      <c r="G51" s="66">
         <v>8</v>
       </c>
-      <c r="H51" s="71">
+      <c r="H51" s="66">
         <v>7096</v>
       </c>
-      <c r="I51" s="71">
+      <c r="I51" s="66">
         <v>172</v>
       </c>
-      <c r="J51" s="71">
+      <c r="J51" s="66">
         <v>773</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="78" t="s">
+      <c r="A52" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="B52" s="79" t="s">
+      <c r="B52" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="C52" s="79" t="s">
+      <c r="C52" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="D52" s="71">
+      <c r="D52" s="66">
         <v>8156</v>
       </c>
-      <c r="E52" s="71">
+      <c r="E52" s="66">
         <v>2584</v>
       </c>
-      <c r="F52" s="71">
+      <c r="F52" s="66">
         <v>3</v>
       </c>
-      <c r="G52" s="71">
+      <c r="G52" s="66">
         <v>12</v>
       </c>
-      <c r="H52" s="71">
+      <c r="H52" s="66">
         <v>5015</v>
       </c>
-      <c r="I52" s="71">
+      <c r="I52" s="66">
         <v>92</v>
       </c>
-      <c r="J52" s="71">
+      <c r="J52" s="66">
         <v>450</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="78" t="s">
+      <c r="A53" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="79" t="s">
+      <c r="B53" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="C53" s="79" t="s">
+      <c r="C53" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="D53" s="71">
+      <c r="D53" s="66">
         <v>4563</v>
       </c>
-      <c r="E53" s="71">
+      <c r="E53" s="66">
         <v>1818</v>
       </c>
-      <c r="F53" s="71">
-        <v>0</v>
-      </c>
-      <c r="G53" s="71">
+      <c r="F53" s="66">
+        <v>0</v>
+      </c>
+      <c r="G53" s="66">
         <v>4</v>
       </c>
-      <c r="H53" s="71">
+      <c r="H53" s="66">
         <v>1680</v>
       </c>
-      <c r="I53" s="71">
+      <c r="I53" s="66">
         <v>52</v>
       </c>
-      <c r="J53" s="71">
+      <c r="J53" s="66">
         <v>1009</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="78" t="s">
+      <c r="A54" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="B54" s="79" t="s">
+      <c r="B54" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="C54" s="79" t="s">
+      <c r="C54" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="D54" s="71">
+      <c r="D54" s="66">
         <v>3345</v>
       </c>
-      <c r="E54" s="71">
+      <c r="E54" s="66">
         <v>1105</v>
       </c>
-      <c r="F54" s="71">
-        <v>0</v>
-      </c>
-      <c r="G54" s="71">
-        <v>2</v>
-      </c>
-      <c r="H54" s="71">
+      <c r="F54" s="66">
+        <v>0</v>
+      </c>
+      <c r="G54" s="66">
+        <v>2</v>
+      </c>
+      <c r="H54" s="66">
         <v>1922</v>
       </c>
-      <c r="I54" s="71">
+      <c r="I54" s="66">
         <v>61</v>
       </c>
-      <c r="J54" s="71">
+      <c r="J54" s="66">
         <v>255</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="78" t="s">
+      <c r="A55" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="B55" s="79" t="s">
+      <c r="B55" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="C55" s="79" t="s">
+      <c r="C55" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="D55" s="71">
+      <c r="D55" s="66">
         <v>3281</v>
       </c>
-      <c r="E55" s="71">
+      <c r="E55" s="66">
         <v>1142</v>
       </c>
-      <c r="F55" s="71">
-        <v>2</v>
-      </c>
-      <c r="G55" s="71">
-        <v>2</v>
-      </c>
-      <c r="H55" s="71">
+      <c r="F55" s="66">
+        <v>2</v>
+      </c>
+      <c r="G55" s="66">
+        <v>2</v>
+      </c>
+      <c r="H55" s="66">
         <v>1906</v>
       </c>
-      <c r="I55" s="71">
+      <c r="I55" s="66">
         <v>46</v>
       </c>
-      <c r="J55" s="71">
+      <c r="J55" s="66">
         <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="78" t="s">
+      <c r="A56" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="B56" s="79" t="s">
+      <c r="B56" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="79" t="s">
+      <c r="C56" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="D56" s="71">
+      <c r="D56" s="66">
         <v>2612</v>
       </c>
-      <c r="E56" s="71">
+      <c r="E56" s="66">
         <v>684</v>
       </c>
-      <c r="F56" s="71">
-        <v>0</v>
-      </c>
-      <c r="G56" s="71">
-        <v>2</v>
-      </c>
-      <c r="H56" s="71">
+      <c r="F56" s="66">
+        <v>0</v>
+      </c>
+      <c r="G56" s="66">
+        <v>2</v>
+      </c>
+      <c r="H56" s="66">
         <v>1458</v>
       </c>
-      <c r="I56" s="71">
+      <c r="I56" s="66">
         <v>65</v>
       </c>
-      <c r="J56" s="71">
+      <c r="J56" s="66">
         <v>403</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="78" t="s">
+      <c r="A57" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="B57" s="79" t="s">
+      <c r="B57" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="C57" s="79" t="s">
+      <c r="C57" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="D57" s="71">
+      <c r="D57" s="66">
         <v>2250</v>
       </c>
-      <c r="E57" s="71">
+      <c r="E57" s="66">
         <v>743</v>
       </c>
-      <c r="F57" s="71">
-        <v>1</v>
-      </c>
-      <c r="G57" s="71">
+      <c r="F57" s="66">
+        <v>1</v>
+      </c>
+      <c r="G57" s="66">
         <v>5</v>
       </c>
-      <c r="H57" s="71">
+      <c r="H57" s="66">
         <v>1338</v>
       </c>
-      <c r="I57" s="71">
+      <c r="I57" s="66">
         <v>21</v>
       </c>
-      <c r="J57" s="71">
+      <c r="J57" s="66">
         <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="78" t="s">
+      <c r="A58" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="B58" s="79" t="s">
+      <c r="B58" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="C58" s="79" t="s">
+      <c r="C58" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="D58" s="71">
+      <c r="D58" s="66">
         <v>2228</v>
       </c>
-      <c r="E58" s="71">
+      <c r="E58" s="66">
         <v>1244</v>
       </c>
-      <c r="F58" s="71">
-        <v>0</v>
-      </c>
-      <c r="G58" s="71">
-        <v>0</v>
-      </c>
-      <c r="H58" s="71">
+      <c r="F58" s="66">
+        <v>0</v>
+      </c>
+      <c r="G58" s="66">
+        <v>0</v>
+      </c>
+      <c r="H58" s="66">
         <v>145</v>
       </c>
-      <c r="I58" s="71">
+      <c r="I58" s="66">
         <v>8</v>
       </c>
-      <c r="J58" s="71">
+      <c r="J58" s="66">
         <v>831</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="78" t="s">
+      <c r="A59" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="B59" s="79" t="s">
+      <c r="B59" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="C59" s="79" t="s">
+      <c r="C59" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="D59" s="71">
+      <c r="D59" s="66">
         <v>2044</v>
       </c>
-      <c r="E59" s="71">
+      <c r="E59" s="66">
         <v>150</v>
       </c>
-      <c r="F59" s="71">
-        <v>1</v>
-      </c>
-      <c r="G59" s="71">
-        <v>1</v>
-      </c>
-      <c r="H59" s="71">
+      <c r="F59" s="66">
+        <v>1</v>
+      </c>
+      <c r="G59" s="66">
+        <v>1</v>
+      </c>
+      <c r="H59" s="66">
         <v>1460</v>
       </c>
-      <c r="I59" s="71">
+      <c r="I59" s="66">
         <v>84</v>
       </c>
-      <c r="J59" s="71">
+      <c r="J59" s="66">
         <v>348</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="78" t="s">
+      <c r="A60" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="B60" s="80" t="s">
+      <c r="B60" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="C60" s="81" t="s">
+      <c r="C60" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="D60" s="71">
+      <c r="D60" s="66">
         <v>16287</v>
       </c>
-      <c r="E60" s="71">
+      <c r="E60" s="66">
         <v>5988</v>
       </c>
-      <c r="F60" s="71">
+      <c r="F60" s="66">
         <v>3</v>
       </c>
-      <c r="G60" s="71">
+      <c r="G60" s="66">
         <v>14</v>
       </c>
-      <c r="H60" s="71">
+      <c r="H60" s="66">
         <v>8066</v>
       </c>
-      <c r="I60" s="71">
+      <c r="I60" s="66">
         <v>221</v>
       </c>
-      <c r="J60" s="71">
+      <c r="J60" s="66">
         <v>1995</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="78" t="s">
+      <c r="A61" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="B61" s="72" t="s">
+      <c r="B61" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="C61" s="73" t="s">
+      <c r="C61" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="D61" s="71">
+      <c r="D61" s="66">
         <v>47988</v>
       </c>
-      <c r="E61" s="71">
+      <c r="E61" s="66">
         <v>13578</v>
       </c>
-      <c r="F61" s="71">
+      <c r="F61" s="66">
         <v>12</v>
       </c>
-      <c r="G61" s="71">
+      <c r="G61" s="66">
         <v>47</v>
       </c>
-      <c r="H61" s="71">
+      <c r="H61" s="66">
         <v>24701</v>
       </c>
-      <c r="I61" s="71">
+      <c r="I61" s="66">
         <v>778</v>
       </c>
-      <c r="J61" s="71">
+      <c r="J61" s="66">
         <v>8872</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="76" t="s">
+      <c r="A62" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="C62" s="67" t="s">
+      <c r="B62" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="D62" s="68">
+      <c r="D62" s="63">
         <v>66951</v>
       </c>
-      <c r="E62" s="68">
+      <c r="E62" s="63">
         <v>19117</v>
       </c>
-      <c r="F62" s="68">
+      <c r="F62" s="63">
         <v>15</v>
       </c>
-      <c r="G62" s="68">
+      <c r="G62" s="63">
         <v>59</v>
       </c>
-      <c r="H62" s="68">
+      <c r="H62" s="63">
         <v>37226</v>
       </c>
-      <c r="I62" s="68">
+      <c r="I62" s="63">
         <v>1061</v>
       </c>
-      <c r="J62" s="68">
+      <c r="J62" s="63">
         <v>9473</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="78" t="s">
+      <c r="A63" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="79" t="s">
+      <c r="B63" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="C63" s="79" t="s">
+      <c r="C63" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="D63" s="71">
+      <c r="D63" s="66">
         <v>9022</v>
       </c>
-      <c r="E63" s="71">
+      <c r="E63" s="66">
         <v>1721</v>
       </c>
-      <c r="F63" s="71">
-        <v>0</v>
-      </c>
-      <c r="G63" s="71">
+      <c r="F63" s="66">
+        <v>0</v>
+      </c>
+      <c r="G63" s="66">
         <v>3</v>
       </c>
-      <c r="H63" s="71">
+      <c r="H63" s="66">
         <v>6542</v>
       </c>
-      <c r="I63" s="71">
+      <c r="I63" s="66">
         <v>130</v>
       </c>
-      <c r="J63" s="71">
+      <c r="J63" s="66">
         <v>626</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="78" t="s">
+      <c r="A64" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="79" t="s">
+      <c r="B64" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="C64" s="79" t="s">
+      <c r="C64" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="D64" s="71">
+      <c r="D64" s="66">
         <v>6262</v>
       </c>
-      <c r="E64" s="71">
+      <c r="E64" s="66">
         <v>1686</v>
       </c>
-      <c r="F64" s="71">
-        <v>2</v>
-      </c>
-      <c r="G64" s="71">
+      <c r="F64" s="66">
+        <v>2</v>
+      </c>
+      <c r="G64" s="66">
         <v>7</v>
       </c>
-      <c r="H64" s="71">
+      <c r="H64" s="66">
         <v>4038</v>
       </c>
-      <c r="I64" s="71">
+      <c r="I64" s="66">
         <v>90</v>
       </c>
-      <c r="J64" s="71">
+      <c r="J64" s="66">
         <v>439</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="78" t="s">
+      <c r="A65" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="79" t="s">
+      <c r="B65" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="C65" s="79" t="s">
+      <c r="C65" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="D65" s="71">
+      <c r="D65" s="66">
         <v>3585</v>
       </c>
-      <c r="E65" s="71">
+      <c r="E65" s="66">
         <v>1090</v>
       </c>
-      <c r="F65" s="71">
-        <v>1</v>
-      </c>
-      <c r="G65" s="71">
+      <c r="F65" s="66">
+        <v>1</v>
+      </c>
+      <c r="G65" s="66">
         <v>5</v>
       </c>
-      <c r="H65" s="71">
+      <c r="H65" s="66">
         <v>2230</v>
       </c>
-      <c r="I65" s="71">
+      <c r="I65" s="66">
         <v>41</v>
       </c>
-      <c r="J65" s="71">
+      <c r="J65" s="66">
         <v>218</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="78" t="s">
+      <c r="A66" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="79" t="s">
+      <c r="B66" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="C66" s="79" t="s">
+      <c r="C66" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="D66" s="71">
+      <c r="D66" s="66">
         <v>2710</v>
       </c>
-      <c r="E66" s="71">
+      <c r="E66" s="66">
         <v>1061</v>
       </c>
-      <c r="F66" s="71">
-        <v>0</v>
-      </c>
-      <c r="G66" s="71">
+      <c r="F66" s="66">
+        <v>0</v>
+      </c>
+      <c r="G66" s="66">
         <v>4</v>
       </c>
-      <c r="H66" s="71">
+      <c r="H66" s="66">
         <v>1033</v>
       </c>
-      <c r="I66" s="71">
+      <c r="I66" s="66">
         <v>31</v>
       </c>
-      <c r="J66" s="71">
+      <c r="J66" s="66">
         <v>581</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="78" t="s">
+      <c r="A67" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="79" t="s">
+      <c r="B67" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="C67" s="79" t="s">
+      <c r="C67" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="D67" s="71">
+      <c r="D67" s="66">
         <v>2257</v>
       </c>
-      <c r="E67" s="71">
+      <c r="E67" s="66">
         <v>709</v>
       </c>
-      <c r="F67" s="71">
-        <v>0</v>
-      </c>
-      <c r="G67" s="71">
-        <v>0</v>
-      </c>
-      <c r="H67" s="71">
+      <c r="F67" s="66">
+        <v>0</v>
+      </c>
+      <c r="G67" s="66">
+        <v>0</v>
+      </c>
+      <c r="H67" s="66">
         <v>1305</v>
       </c>
-      <c r="I67" s="71">
+      <c r="I67" s="66">
         <v>45</v>
       </c>
-      <c r="J67" s="71">
+      <c r="J67" s="66">
         <v>198</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="78" t="s">
+      <c r="A68" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B68" s="79" t="s">
+      <c r="B68" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="C68" s="79" t="s">
+      <c r="C68" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="D68" s="71">
+      <c r="D68" s="66">
         <v>2141</v>
       </c>
-      <c r="E68" s="71">
+      <c r="E68" s="66">
         <v>564</v>
       </c>
-      <c r="F68" s="71">
-        <v>0</v>
-      </c>
-      <c r="G68" s="71">
-        <v>2</v>
-      </c>
-      <c r="H68" s="71">
+      <c r="F68" s="66">
+        <v>0</v>
+      </c>
+      <c r="G68" s="66">
+        <v>2</v>
+      </c>
+      <c r="H68" s="66">
         <v>1200</v>
       </c>
-      <c r="I68" s="71">
+      <c r="I68" s="66">
         <v>54</v>
       </c>
-      <c r="J68" s="71">
+      <c r="J68" s="66">
         <v>321</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="78" t="s">
+      <c r="A69" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="79" t="s">
+      <c r="B69" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="C69" s="79" t="s">
+      <c r="C69" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="D69" s="71">
+      <c r="D69" s="66">
         <v>1792</v>
       </c>
-      <c r="E69" s="71">
+      <c r="E69" s="66">
         <v>129</v>
       </c>
-      <c r="F69" s="71">
-        <v>1</v>
-      </c>
-      <c r="G69" s="71">
-        <v>1</v>
-      </c>
-      <c r="H69" s="71">
+      <c r="F69" s="66">
+        <v>1</v>
+      </c>
+      <c r="G69" s="66">
+        <v>1</v>
+      </c>
+      <c r="H69" s="66">
         <v>1288</v>
       </c>
-      <c r="I69" s="71">
+      <c r="I69" s="66">
         <v>68</v>
       </c>
-      <c r="J69" s="71">
+      <c r="J69" s="66">
         <v>305</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="78" t="s">
+      <c r="A70" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B70" s="79" t="s">
+      <c r="B70" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="C70" s="79" t="s">
+      <c r="C70" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="D70" s="71">
+      <c r="D70" s="66">
         <v>1700</v>
       </c>
-      <c r="E70" s="71">
+      <c r="E70" s="66">
         <v>338</v>
       </c>
-      <c r="F70" s="71">
-        <v>0</v>
-      </c>
-      <c r="G70" s="71">
-        <v>1</v>
-      </c>
-      <c r="H70" s="71">
+      <c r="F70" s="66">
+        <v>0</v>
+      </c>
+      <c r="G70" s="66">
+        <v>1</v>
+      </c>
+      <c r="H70" s="66">
         <v>1062</v>
       </c>
-      <c r="I70" s="71">
+      <c r="I70" s="66">
         <v>44</v>
       </c>
-      <c r="J70" s="71">
+      <c r="J70" s="66">
         <v>255</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="78" t="s">
+      <c r="A71" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B71" s="79" t="s">
+      <c r="B71" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="C71" s="79" t="s">
+      <c r="C71" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="D71" s="71">
+      <c r="D71" s="66">
         <v>1450</v>
       </c>
-      <c r="E71" s="71">
+      <c r="E71" s="66">
         <v>476</v>
       </c>
-      <c r="F71" s="71">
-        <v>1</v>
-      </c>
-      <c r="G71" s="71">
-        <v>1</v>
-      </c>
-      <c r="H71" s="71">
+      <c r="F71" s="66">
+        <v>1</v>
+      </c>
+      <c r="G71" s="66">
+        <v>1</v>
+      </c>
+      <c r="H71" s="66">
         <v>855</v>
       </c>
-      <c r="I71" s="71">
+      <c r="I71" s="66">
         <v>24</v>
       </c>
-      <c r="J71" s="71">
+      <c r="J71" s="66">
         <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="78" t="s">
+      <c r="A72" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="79" t="s">
+      <c r="B72" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="C72" s="79" t="s">
+      <c r="C72" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="D72" s="71">
+      <c r="D72" s="66">
         <v>1153</v>
       </c>
-      <c r="E72" s="71">
+      <c r="E72" s="66">
         <v>623</v>
       </c>
-      <c r="F72" s="71">
-        <v>0</v>
-      </c>
-      <c r="G72" s="71">
-        <v>0</v>
-      </c>
-      <c r="H72" s="71">
+      <c r="F72" s="66">
+        <v>0</v>
+      </c>
+      <c r="G72" s="66">
+        <v>0</v>
+      </c>
+      <c r="H72" s="66">
         <v>73</v>
       </c>
-      <c r="I72" s="71">
+      <c r="I72" s="66">
         <v>5</v>
       </c>
-      <c r="J72" s="71">
+      <c r="J72" s="66">
         <v>452</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="78" t="s">
+      <c r="A73" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="80" t="s">
+      <c r="B73" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="C73" s="81" t="s">
+      <c r="C73" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="D73" s="71">
+      <c r="D73" s="66">
         <v>8669</v>
       </c>
-      <c r="E73" s="71">
+      <c r="E73" s="66">
         <v>3126</v>
       </c>
-      <c r="F73" s="71">
-        <v>1</v>
-      </c>
-      <c r="G73" s="71">
+      <c r="F73" s="66">
+        <v>1</v>
+      </c>
+      <c r="G73" s="66">
         <v>7</v>
       </c>
-      <c r="H73" s="71">
+      <c r="H73" s="66">
         <v>4324</v>
       </c>
-      <c r="I73" s="71">
+      <c r="I73" s="66">
         <v>105</v>
       </c>
-      <c r="J73" s="71">
+      <c r="J73" s="66">
         <v>1106</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="78" t="s">
+      <c r="A74" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B74" s="72" t="s">
+      <c r="B74" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="C74" s="73" t="s">
+      <c r="C74" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="D74" s="71">
+      <c r="D74" s="66">
         <v>26210</v>
       </c>
-      <c r="E74" s="71">
+      <c r="E74" s="66">
         <v>7594</v>
       </c>
-      <c r="F74" s="71">
+      <c r="F74" s="66">
         <v>9</v>
       </c>
-      <c r="G74" s="71">
+      <c r="G74" s="66">
         <v>28</v>
       </c>
-      <c r="H74" s="71">
+      <c r="H74" s="66">
         <v>13276</v>
       </c>
-      <c r="I74" s="71">
+      <c r="I74" s="66">
         <v>424</v>
       </c>
-      <c r="J74" s="71">
+      <c r="J74" s="66">
         <v>4879</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="76" t="s">
+      <c r="A75" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B75" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="C75" s="67" t="s">
+      <c r="B75" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="D75" s="68">
+      <c r="D75" s="63">
         <v>51514</v>
       </c>
-      <c r="E75" s="68">
+      <c r="E75" s="63">
         <v>15719</v>
       </c>
-      <c r="F75" s="68">
+      <c r="F75" s="63">
         <v>14</v>
       </c>
-      <c r="G75" s="68">
+      <c r="G75" s="63">
         <v>45</v>
       </c>
-      <c r="H75" s="68">
+      <c r="H75" s="63">
         <v>28210</v>
       </c>
-      <c r="I75" s="68">
+      <c r="I75" s="63">
         <v>760</v>
       </c>
-      <c r="J75" s="68">
+      <c r="J75" s="63">
         <v>6766</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="78" t="s">
+      <c r="A76" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B76" s="79" t="s">
+      <c r="B76" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="C76" s="79" t="s">
+      <c r="C76" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="D76" s="71">
+      <c r="D76" s="66">
         <v>5606</v>
       </c>
-      <c r="E76" s="71">
+      <c r="E76" s="66">
         <v>1048</v>
       </c>
-      <c r="F76" s="71">
+      <c r="F76" s="66">
         <v>4</v>
       </c>
-      <c r="G76" s="71">
+      <c r="G76" s="66">
         <v>4</v>
       </c>
-      <c r="H76" s="71">
+      <c r="H76" s="66">
         <v>4107</v>
       </c>
-      <c r="I76" s="71">
+      <c r="I76" s="66">
         <v>91</v>
       </c>
-      <c r="J76" s="71">
+      <c r="J76" s="66">
         <v>352</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="78" t="s">
+      <c r="A77" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B77" s="79" t="s">
+      <c r="B77" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="C77" s="79" t="s">
+      <c r="C77" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="D77" s="71">
+      <c r="D77" s="66">
         <v>4821</v>
       </c>
-      <c r="E77" s="71">
+      <c r="E77" s="66">
         <v>1345</v>
       </c>
-      <c r="F77" s="71">
-        <v>1</v>
-      </c>
-      <c r="G77" s="71">
-        <v>1</v>
-      </c>
-      <c r="H77" s="71">
+      <c r="F77" s="66">
+        <v>1</v>
+      </c>
+      <c r="G77" s="66">
+        <v>1</v>
+      </c>
+      <c r="H77" s="66">
         <v>3058</v>
       </c>
-      <c r="I77" s="71">
+      <c r="I77" s="66">
         <v>82</v>
       </c>
-      <c r="J77" s="71">
+      <c r="J77" s="66">
         <v>334</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="78" t="s">
+      <c r="A78" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B78" s="79" t="s">
+      <c r="B78" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="C78" s="79" t="s">
+      <c r="C78" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="D78" s="71">
+      <c r="D78" s="66">
         <v>4571</v>
       </c>
-      <c r="E78" s="71">
+      <c r="E78" s="66">
         <v>1494</v>
       </c>
-      <c r="F78" s="71">
-        <v>2</v>
-      </c>
-      <c r="G78" s="71">
+      <c r="F78" s="66">
+        <v>2</v>
+      </c>
+      <c r="G78" s="66">
         <v>7</v>
       </c>
-      <c r="H78" s="71">
+      <c r="H78" s="66">
         <v>2785</v>
       </c>
-      <c r="I78" s="71">
+      <c r="I78" s="66">
         <v>51</v>
       </c>
-      <c r="J78" s="71">
+      <c r="J78" s="66">
         <v>232</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="78" t="s">
+      <c r="A79" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B79" s="79" t="s">
+      <c r="B79" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="C79" s="79" t="s">
+      <c r="C79" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="D79" s="71">
+      <c r="D79" s="66">
         <v>1853</v>
       </c>
-      <c r="E79" s="71">
+      <c r="E79" s="66">
         <v>757</v>
       </c>
-      <c r="F79" s="71">
-        <v>0</v>
-      </c>
-      <c r="G79" s="71">
-        <v>0</v>
-      </c>
-      <c r="H79" s="71">
+      <c r="F79" s="66">
+        <v>0</v>
+      </c>
+      <c r="G79" s="66">
+        <v>0</v>
+      </c>
+      <c r="H79" s="66">
         <v>647</v>
       </c>
-      <c r="I79" s="71">
+      <c r="I79" s="66">
         <v>21</v>
       </c>
-      <c r="J79" s="71">
+      <c r="J79" s="66">
         <v>428</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="78" t="s">
+      <c r="A80" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B80" s="79" t="s">
+      <c r="B80" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="C80" s="79" t="s">
+      <c r="C80" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="D80" s="71">
+      <c r="D80" s="66">
         <v>1831</v>
       </c>
-      <c r="E80" s="71">
+      <c r="E80" s="66">
         <v>666</v>
       </c>
-      <c r="F80" s="71">
-        <v>1</v>
-      </c>
-      <c r="G80" s="71">
-        <v>1</v>
-      </c>
-      <c r="H80" s="71">
+      <c r="F80" s="66">
+        <v>1</v>
+      </c>
+      <c r="G80" s="66">
+        <v>1</v>
+      </c>
+      <c r="H80" s="66">
         <v>1051</v>
       </c>
-      <c r="I80" s="71">
+      <c r="I80" s="66">
         <v>22</v>
       </c>
-      <c r="J80" s="71">
+      <c r="J80" s="66">
         <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="78" t="s">
+      <c r="A81" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B81" s="79" t="s">
+      <c r="B81" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="C81" s="79" t="s">
+      <c r="C81" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="D81" s="71">
+      <c r="D81" s="66">
         <v>1179</v>
       </c>
-      <c r="E81" s="71">
+      <c r="E81" s="66">
         <v>381</v>
       </c>
-      <c r="F81" s="71">
-        <v>1</v>
-      </c>
-      <c r="G81" s="71">
+      <c r="F81" s="66">
+        <v>1</v>
+      </c>
+      <c r="G81" s="66">
         <v>3</v>
       </c>
-      <c r="H81" s="71">
+      <c r="H81" s="66">
         <v>708</v>
       </c>
-      <c r="I81" s="71">
+      <c r="I81" s="66">
         <v>13</v>
       </c>
-      <c r="J81" s="71">
+      <c r="J81" s="66">
         <v>73</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="78" t="s">
+      <c r="A82" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B82" s="79" t="s">
+      <c r="B82" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="C82" s="79" t="s">
+      <c r="C82" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="D82" s="71">
+      <c r="D82" s="66">
         <v>1088</v>
       </c>
-      <c r="E82" s="71">
+      <c r="E82" s="66">
         <v>396</v>
       </c>
-      <c r="F82" s="71">
-        <v>0</v>
-      </c>
-      <c r="G82" s="71">
-        <v>2</v>
-      </c>
-      <c r="H82" s="71">
+      <c r="F82" s="66">
+        <v>0</v>
+      </c>
+      <c r="G82" s="66">
+        <v>2</v>
+      </c>
+      <c r="H82" s="66">
         <v>617</v>
       </c>
-      <c r="I82" s="71">
+      <c r="I82" s="66">
         <v>16</v>
       </c>
-      <c r="J82" s="71">
+      <c r="J82" s="66">
         <v>57</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="78" t="s">
+      <c r="A83" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B83" s="79" t="s">
+      <c r="B83" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="C83" s="79" t="s">
+      <c r="C83" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="D83" s="71">
+      <c r="D83" s="66">
         <v>1075</v>
       </c>
-      <c r="E83" s="71">
+      <c r="E83" s="66">
         <v>621</v>
       </c>
-      <c r="F83" s="71">
-        <v>0</v>
-      </c>
-      <c r="G83" s="71">
-        <v>0</v>
-      </c>
-      <c r="H83" s="71">
+      <c r="F83" s="66">
+        <v>0</v>
+      </c>
+      <c r="G83" s="66">
+        <v>0</v>
+      </c>
+      <c r="H83" s="66">
         <v>72</v>
       </c>
-      <c r="I83" s="71">
+      <c r="I83" s="66">
         <v>3</v>
       </c>
-      <c r="J83" s="71">
+      <c r="J83" s="66">
         <v>379</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="78" t="s">
+      <c r="A84" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B84" s="79" t="s">
+      <c r="B84" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="C84" s="79" t="s">
+      <c r="C84" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="D84" s="71">
+      <c r="D84" s="66">
         <v>908</v>
       </c>
-      <c r="E84" s="71">
+      <c r="E84" s="66">
         <v>266</v>
       </c>
-      <c r="F84" s="71">
-        <v>0</v>
-      </c>
-      <c r="G84" s="71">
+      <c r="F84" s="66">
+        <v>0</v>
+      </c>
+      <c r="G84" s="66">
         <v>3</v>
       </c>
-      <c r="H84" s="71">
+      <c r="H84" s="66">
         <v>576</v>
       </c>
-      <c r="I84" s="71">
+      <c r="I84" s="66">
         <v>12</v>
       </c>
-      <c r="J84" s="71">
+      <c r="J84" s="66">
         <v>51</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="78" t="s">
+      <c r="A85" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B85" s="79" t="s">
+      <c r="B85" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="C85" s="79" t="s">
+      <c r="C85" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="D85" s="71">
+      <c r="D85" s="66">
         <v>888</v>
       </c>
-      <c r="E85" s="71">
+      <c r="E85" s="66">
         <v>194</v>
       </c>
-      <c r="F85" s="71">
-        <v>0</v>
-      </c>
-      <c r="G85" s="71">
-        <v>0</v>
-      </c>
-      <c r="H85" s="71">
+      <c r="F85" s="66">
+        <v>0</v>
+      </c>
+      <c r="G85" s="66">
+        <v>0</v>
+      </c>
+      <c r="H85" s="66">
         <v>620</v>
       </c>
-      <c r="I85" s="71">
+      <c r="I85" s="66">
         <v>16</v>
       </c>
-      <c r="J85" s="71">
+      <c r="J85" s="66">
         <v>58</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="78" t="s">
+      <c r="A86" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B86" s="80" t="s">
+      <c r="B86" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="C86" s="81" t="s">
+      <c r="C86" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="D86" s="71">
+      <c r="D86" s="66">
         <v>7618</v>
       </c>
-      <c r="E86" s="71">
+      <c r="E86" s="66">
         <v>2862</v>
       </c>
-      <c r="F86" s="71">
-        <v>2</v>
-      </c>
-      <c r="G86" s="71">
+      <c r="F86" s="66">
+        <v>2</v>
+      </c>
+      <c r="G86" s="66">
         <v>7</v>
       </c>
-      <c r="H86" s="71">
+      <c r="H86" s="66">
         <v>3742</v>
       </c>
-      <c r="I86" s="71">
+      <c r="I86" s="66">
         <v>116</v>
       </c>
-      <c r="J86" s="71">
+      <c r="J86" s="66">
         <v>889</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="78" t="s">
+      <c r="A87" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B87" s="72" t="s">
+      <c r="B87" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="C87" s="73" t="s">
+      <c r="C87" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="D87" s="71">
+      <c r="D87" s="66">
         <v>20076</v>
       </c>
-      <c r="E87" s="71">
+      <c r="E87" s="66">
         <v>5689</v>
       </c>
-      <c r="F87" s="71">
+      <c r="F87" s="66">
         <v>3</v>
       </c>
-      <c r="G87" s="71">
+      <c r="G87" s="66">
         <v>17</v>
       </c>
-      <c r="H87" s="71">
+      <c r="H87" s="66">
         <v>10227</v>
       </c>
-      <c r="I87" s="71">
+      <c r="I87" s="66">
         <v>317</v>
       </c>
-      <c r="J87" s="71">
+      <c r="J87" s="66">
         <v>3823</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="82" t="s">
+      <c r="A88" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B88" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="C88" s="67" t="s">
+      <c r="B88" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="D88" s="75">
-        <v>0</v>
-      </c>
-      <c r="E88" s="75">
-        <v>0</v>
-      </c>
-      <c r="F88" s="75">
-        <v>0</v>
-      </c>
-      <c r="G88" s="75">
-        <v>0</v>
-      </c>
-      <c r="H88" s="75">
-        <v>0</v>
-      </c>
-      <c r="I88" s="75">
-        <v>0</v>
-      </c>
-      <c r="J88" s="75">
+      <c r="D88" s="70">
+        <v>0</v>
+      </c>
+      <c r="E88" s="70">
+        <v>0</v>
+      </c>
+      <c r="F88" s="70">
+        <v>0</v>
+      </c>
+      <c r="G88" s="70">
+        <v>0</v>
+      </c>
+      <c r="H88" s="70">
+        <v>0</v>
+      </c>
+      <c r="I88" s="70">
+        <v>0</v>
+      </c>
+      <c r="J88" s="70">
         <v>0</v>
       </c>
     </row>
@@ -9486,10 +9904,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="89" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="84"/>
+      <c r="B1" s="89"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
